--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -4,68 +4,75 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1060307" sheetId="12" r:id="rId2"/>
-    <sheet name="1060306" sheetId="11" r:id="rId3"/>
-    <sheet name="1060303" sheetId="9" r:id="rId4"/>
-    <sheet name="1060302" sheetId="8" r:id="rId5"/>
-    <sheet name="1060301" sheetId="6" r:id="rId6"/>
-    <sheet name="1060224" sheetId="1" r:id="rId7"/>
-    <sheet name="1060223" sheetId="5" r:id="rId8"/>
-    <sheet name="1060222" sheetId="7" r:id="rId9"/>
+    <sheet name="1061108" sheetId="13" r:id="rId2"/>
+    <sheet name="1060307" sheetId="12" r:id="rId3"/>
+    <sheet name="1060306" sheetId="11" r:id="rId4"/>
+    <sheet name="1060303" sheetId="9" r:id="rId5"/>
+    <sheet name="1060302" sheetId="8" r:id="rId6"/>
+    <sheet name="1060301" sheetId="6" r:id="rId7"/>
+    <sheet name="1060224" sheetId="1" r:id="rId8"/>
+    <sheet name="1060223" sheetId="5" r:id="rId9"/>
+    <sheet name="1060222" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="8">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061108'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -96,89 +103,101 @@
   <connection id="6" name="連線11111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="7" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="7" name="連線111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="8" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="9" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="10" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="33" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="34" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="35" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="36" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="240">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,6 +858,72 @@
   </si>
   <si>
     <t>慶騰</t>
+  </si>
+  <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>旭軟</t>
+  </si>
+  <si>
+    <t>生展</t>
+  </si>
+  <si>
+    <t>智崴</t>
+  </si>
+  <si>
+    <t>翔名</t>
+  </si>
+  <si>
+    <t>力旺</t>
+  </si>
+  <si>
+    <t>德勝</t>
+  </si>
+  <si>
+    <t>雅茗-KY</t>
+  </si>
+  <si>
+    <t>禾瑞亞</t>
+  </si>
+  <si>
+    <t>業強</t>
+  </si>
+  <si>
+    <t>永信建</t>
+  </si>
+  <si>
+    <t>西勝</t>
+  </si>
+  <si>
+    <t>永捷</t>
+  </si>
+  <si>
+    <t>富宇</t>
+  </si>
+  <si>
+    <t>展旺</t>
+  </si>
+  <si>
+    <t>大田</t>
+  </si>
+  <si>
+    <t>蜜望實</t>
+  </si>
+  <si>
+    <t>越峰</t>
+  </si>
+  <si>
+    <t>天宇</t>
+  </si>
+  <si>
+    <t>元山</t>
+  </si>
+  <si>
+    <t>力麒</t>
+  </si>
+  <si>
+    <t>英濟</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1263,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1305,131 +1404,147 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1687,7 +1802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1697,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1738,7 +1853,2600 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1409</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-800</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1574</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="3">
+        <v>6147</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1312</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-291</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="18">
+        <v>833</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="3">
+        <v>6220</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>936</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-290</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8050</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="18">
+        <v>632</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="3">
+        <v>3105</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9">
+        <v>903</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-260</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="18">
+        <v>627</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="3">
+        <v>8044</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9">
+        <v>847</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-241</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="18">
+        <v>618</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="3">
+        <v>1815</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9">
+        <v>700</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-158</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="18">
+        <v>481</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="3">
+        <v>6182</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9">
+        <v>605</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>8383</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-157</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="18">
+        <v>417</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="3">
+        <v>8358</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="9">
+        <v>317</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-142</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="18">
+        <v>360</v>
+      </c>
+      <c r="L9" s="21"/>
+      <c r="M9" s="3">
+        <v>5371</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>2233</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9">
+        <v>191</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>6143</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-141</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3360</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="18">
+        <v>289</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="3">
+        <v>6123</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>4979</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="9">
+        <v>165</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-103</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3299</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="18">
+        <v>274</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="3">
+        <v>8042</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9">
+        <v>120</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3088</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="18">
+        <v>272</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="3">
+        <v>1785</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="9">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-77</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="18">
+        <v>260</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="3">
+        <v>6223</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>3234</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>6279</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-70</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="18">
+        <v>257</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="3">
+        <v>8383</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9">
+        <v>66</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3324</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="18">
+        <v>233</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="3">
+        <v>6121</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>8358</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6187</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="18">
+        <v>228</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="3">
+        <v>8183</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-59</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="18">
+        <v>206</v>
+      </c>
+      <c r="L17" s="21"/>
+      <c r="M17" s="3">
+        <v>3455</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9">
+        <v>48</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3630</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="18">
+        <v>200</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="3">
+        <v>3526</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>4147</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>5306</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-38</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5480</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="18">
+        <v>190</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="3">
+        <v>5820</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8050</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3092</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="18">
+        <v>186</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="3">
+        <v>5530</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6462</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-29</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>5356</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="18">
+        <v>182</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="3">
+        <v>6188</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="18">
+        <v>159</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="3">
+        <v>1565</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4736</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3563</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="18">
+        <v>152</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="3">
+        <v>8936</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="9">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>5013</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="18">
+        <v>151</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="3">
+        <v>8059</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4903</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="18">
+        <v>149</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="3">
+        <v>3202</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>5274</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="9">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6238</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="18">
+        <v>149</v>
+      </c>
+      <c r="L26" s="21"/>
+      <c r="M26" s="3">
+        <v>8433</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>3558</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="9">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>8450</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3455</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="18">
+        <v>137</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="3">
+        <v>5904</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="9">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3581</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6411</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="18">
+        <v>134</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="3">
+        <v>5009</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8">
+        <v>4549</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3623</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6125</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="18">
+        <v>129</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="3">
+        <v>3313</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8">
+        <v>8462</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>8437</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>4126</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="18">
+        <v>123</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="3">
+        <v>6024</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>3552</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-6</v>
+      </c>
+      <c r="I31" s="15">
+        <v>8049</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="19">
+        <v>117</v>
+      </c>
+      <c r="L31" s="11"/>
+      <c r="M31" s="16">
+        <v>8406</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4178</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-3970</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2597</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3972</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1026</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1952</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5483</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2193</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-990</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1489</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>8121</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>6180</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="9">
+        <v>460</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-328</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1300</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="9">
+        <v>261</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-319</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1235</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9">
+        <v>224</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6173</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-218</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1042</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8171</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="9">
+        <v>190</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-212</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="9">
+        <v>830</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="9">
+        <v>180</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="9">
+        <v>790</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9">
+        <v>179</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-177</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>744</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>160</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-145</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>4991</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="9">
+        <v>667</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6104</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9">
+        <v>130</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3689</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-122</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9">
+        <v>461</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="9">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-87</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="9">
+        <v>403</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-86</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6124</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="9">
+        <v>376</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6238</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5508</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="9">
+        <v>350</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="9">
+        <v>340</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="9">
+        <v>335</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5230</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3625</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="9">
+        <v>324</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>5439</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="9">
+        <v>312</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>8383</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8091</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-51</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4714</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="9">
+        <v>299</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="9">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>4907</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="9">
+        <v>258</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6275</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="9">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-39</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>5340</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="9">
+        <v>251</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-37</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="9">
+        <v>251</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3491</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3529</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="9">
+        <v>234</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>1569</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>8048</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5356</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="9">
+        <v>231</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="9">
+        <v>231</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3323</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>9951</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3227</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-27</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>230</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3088</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="9">
+        <v>218</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8924</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="9">
+        <v>208</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8">
+        <v>8444</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8043</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="9">
+        <v>190</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+      <c r="A31" s="15">
+        <v>8299</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>8433</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-20</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3227</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="17">
+        <v>187</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3707</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3027,17 +5735,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4296,17 +7004,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5547,17 +8255,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6828,17 +9536,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8061,17 +10769,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -9310,17 +12018,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -10571,1304 +13279,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1409</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-800</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="18">
-        <v>1574</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="3">
-        <v>6147</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
-      <c r="A3" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1312</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-291</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="18">
-        <v>833</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="3">
-        <v>6220</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
-      <c r="A4" s="8">
-        <v>3374</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="9">
-        <v>936</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-290</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>8050</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="18">
-        <v>632</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="3">
-        <v>3105</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="A5" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9">
-        <v>903</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>5347</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-260</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>8086</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="18">
-        <v>627</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="3">
-        <v>8044</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="A6" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9">
-        <v>847</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-241</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="18">
-        <v>618</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="3">
-        <v>1815</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="A7" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="9">
-        <v>700</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-158</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="18">
-        <v>481</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="3">
-        <v>6182</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="A8" s="8">
-        <v>8069</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="9">
-        <v>605</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>8383</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-157</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6188</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="18">
-        <v>417</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="3">
-        <v>8358</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-518</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="A9" s="8">
-        <v>6220</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="9">
-        <v>317</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-142</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="18">
-        <v>360</v>
-      </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="3">
-        <v>5371</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="A10" s="8">
-        <v>2233</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="9">
-        <v>191</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>6143</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-141</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3360</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="18">
-        <v>289</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="3">
-        <v>6123</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="A11" s="8">
-        <v>4979</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="9">
-        <v>165</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-103</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3299</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="18">
-        <v>274</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="3">
-        <v>8042</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="A12" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="9">
-        <v>120</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3088</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="18">
-        <v>272</v>
-      </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="3">
-        <v>1785</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="A13" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="9">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-77</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="18">
-        <v>260</v>
-      </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="3">
-        <v>6223</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14" s="8">
-        <v>3234</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>6279</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-70</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="18">
-        <v>257</v>
-      </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="3">
-        <v>8383</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
-      <c r="A15" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="9">
-        <v>66</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>8916</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-65</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>3324</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="18">
-        <v>233</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="3">
-        <v>6121</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
-      <c r="A16" s="8">
-        <v>6188</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="9">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>8358</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6187</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="18">
-        <v>228</v>
-      </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="3">
-        <v>8183</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
-      <c r="A17" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="9">
-        <v>50</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>4401</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-59</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>6298</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="18">
-        <v>206</v>
-      </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="3">
-        <v>3455</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
-      <c r="A18" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
-        <v>48</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>8433</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3630</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="18">
-        <v>200</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="3">
-        <v>3526</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
-      <c r="A19" s="8">
-        <v>4147</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>5306</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-38</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>5480</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" s="18">
-        <v>190</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="3">
-        <v>5820</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
-      <c r="A20" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>8050</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-33</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3092</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="18">
-        <v>186</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="3">
-        <v>5530</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
-      <c r="A21" s="8">
-        <v>6568</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9">
-        <v>40</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>6462</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-29</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>5356</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K21" s="18">
-        <v>182</v>
-      </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="3">
-        <v>6188</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
-      <c r="A22" s="8">
-        <v>4947</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="18">
-        <v>159</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="3">
-        <v>1565</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
-      <c r="A23" s="8">
-        <v>3293</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="9">
-        <v>33</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>4736</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>3563</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="18">
-        <v>152</v>
-      </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="3">
-        <v>8936</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
-      <c r="A24" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9">
-        <v>22</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>5013</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="18">
-        <v>151</v>
-      </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="3">
-        <v>8059</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
-      <c r="A25" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="9">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>3587</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>4903</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="18">
-        <v>149</v>
-      </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="3">
-        <v>3202</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
-      <c r="A26" s="8">
-        <v>5274</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="9">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6238</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="18">
-        <v>149</v>
-      </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="3">
-        <v>8433</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
-      <c r="A27" s="8">
-        <v>3558</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="9">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>8450</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-17</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3455</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="18">
-        <v>137</v>
-      </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="3">
-        <v>5904</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
-      <c r="A28" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="9">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>3581</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-15</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>6411</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="18">
-        <v>134</v>
-      </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="3">
-        <v>5009</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
-      <c r="A29" s="8">
-        <v>4549</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="9">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3623</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6125</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="18">
-        <v>129</v>
-      </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="3">
-        <v>3313</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
-      <c r="A30" s="8">
-        <v>8462</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="9">
-        <v>4</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>8437</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>4126</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="18">
-        <v>123</v>
-      </c>
-      <c r="L30" s="21"/>
-      <c r="M30" s="3">
-        <v>6024</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>3552</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-6</v>
-      </c>
-      <c r="I31" s="15">
-        <v>8049</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="19">
-        <v>117</v>
-      </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="16">
-        <v>8406</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-72</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -1,82 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\stock\investment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061108" sheetId="13" r:id="rId2"/>
-    <sheet name="1060307" sheetId="12" r:id="rId3"/>
-    <sheet name="1060306" sheetId="11" r:id="rId4"/>
-    <sheet name="1060303" sheetId="9" r:id="rId5"/>
-    <sheet name="1060302" sheetId="8" r:id="rId6"/>
-    <sheet name="1060301" sheetId="6" r:id="rId7"/>
-    <sheet name="1060224" sheetId="1" r:id="rId8"/>
-    <sheet name="1060223" sheetId="5" r:id="rId9"/>
-    <sheet name="1060222" sheetId="7" r:id="rId10"/>
+    <sheet name="1061109" sheetId="14" r:id="rId2"/>
+    <sheet name="1061108" sheetId="13" r:id="rId3"/>
+    <sheet name="1060307" sheetId="12" r:id="rId4"/>
+    <sheet name="1060306" sheetId="11" r:id="rId5"/>
+    <sheet name="1060303" sheetId="9" r:id="rId6"/>
+    <sheet name="1060302" sheetId="8" r:id="rId7"/>
+    <sheet name="1060301" sheetId="6" r:id="rId8"/>
+    <sheet name="1060224" sheetId="1" r:id="rId9"/>
+    <sheet name="1060223" sheetId="5" r:id="rId10"/>
+    <sheet name="1060222" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="9">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061109'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -106,98 +118,110 @@
   <connection id="7" name="連線111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="8" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="連線1111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="9" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="10" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="37" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="38" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="39" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="40" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="246">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,13 +948,31 @@
   </si>
   <si>
     <t>英濟</t>
+  </si>
+  <si>
+    <t>聯合</t>
+  </si>
+  <si>
+    <t>碩禾</t>
+  </si>
+  <si>
+    <t>直得</t>
+  </si>
+  <si>
+    <t>尼克森</t>
+  </si>
+  <si>
+    <t>東碩</t>
+  </si>
+  <si>
+    <t>熱映</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1263,7 +1305,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1404,147 +1460,163 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1802,41 +1874,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="65.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" s="22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" s="22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" s="22" t="s">
         <v>202</v>
       </c>
@@ -1854,14 +1926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
@@ -1881,7 +1953,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1898,6 +1970,1267 @@
         <v>1</v>
       </c>
       <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5009</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-230</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2734</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-2459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>785</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-218</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>8299</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1639</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-2257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2233</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="9">
+        <v>516</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>4105</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-204</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1017</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
+        <v>500</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="9">
+        <v>839</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-1141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9">
+        <v>500</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6223</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-195</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="9">
+        <v>620</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3455</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9">
+        <v>357</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-190</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="9">
+        <v>522</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9">
+        <v>282</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6147</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-173</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6238</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="9">
+        <v>480</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>4533</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9">
+        <v>217</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6156</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-172</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3152</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="9">
+        <v>474</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9">
+        <v>165</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-170</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>468</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>147</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-129</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9">
+        <v>333</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3615</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-112</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>2233</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="9">
+        <v>322</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3580</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6426</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-110</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3455</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="9">
+        <v>314</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6435</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-90</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="9">
+        <v>292</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9">
+        <v>75</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6462</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-89</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6223</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="9">
+        <v>275</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3374</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6121</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="9">
+        <v>260</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9">
+        <v>46</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="9">
+        <v>260</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>1565</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-47</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5443</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="9">
+        <v>240</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3289</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="9">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-37</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>4105</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="9">
+        <v>231</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>8913</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3483</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="9">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-34</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4147</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="9">
+        <v>217</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4123</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>8358</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="9">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>5306</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-32</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="9">
+        <v>216</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5009</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>8446</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="9">
+        <v>203</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3224</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>3088</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="9">
+        <v>201</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3234</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>5013</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-21</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="9">
+        <v>196</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8183</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="9">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4188</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>8049</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="9">
+        <v>195</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3558</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="9">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8446</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="9">
+        <v>185</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3526</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>5904</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2732</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6207</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K27" s="9">
+        <v>151</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>4991</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="9">
+        <v>8</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3581</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4530</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="9">
+        <v>144</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>4549</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>5491</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K29" s="9">
+        <v>133</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>4162</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11">
+        <v>8437</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="13">
+        <v>-12</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11">
+        <v>5452</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="14">
+        <v>129</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="11">
+        <v>3666</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" s="13">
+        <v>-117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
       <c r="K1" s="26"/>
       <c r="L1" s="20"/>
       <c r="M1" s="24" t="s">
@@ -1906,7 +3239,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>5483</v>
       </c>
@@ -1947,7 +3280,7 @@
         <v>-1761</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>6488</v>
       </c>
@@ -1988,7 +3321,7 @@
         <v>-1189</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3374</v>
       </c>
@@ -2029,7 +3362,7 @@
         <v>-913</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3217</v>
       </c>
@@ -2070,7 +3403,7 @@
         <v>-794</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3105</v>
       </c>
@@ -2111,7 +3444,7 @@
         <v>-735</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3264</v>
       </c>
@@ -2152,7 +3485,7 @@
         <v>-641</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>8069</v>
       </c>
@@ -2193,7 +3526,7 @@
         <v>-518</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6220</v>
       </c>
@@ -2234,7 +3567,7 @@
         <v>-503</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2233</v>
       </c>
@@ -2275,7 +3608,7 @@
         <v>-459</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>4979</v>
       </c>
@@ -2316,7 +3649,7 @@
         <v>-454</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6187</v>
       </c>
@@ -2357,7 +3690,7 @@
         <v>-361</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3068</v>
       </c>
@@ -2398,7 +3731,7 @@
         <v>-254</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3234</v>
       </c>
@@ -2439,7 +3772,7 @@
         <v>-254</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>4105</v>
       </c>
@@ -2480,7 +3813,7 @@
         <v>-248</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>6188</v>
       </c>
@@ -2521,7 +3854,7 @@
         <v>-237</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>6554</v>
       </c>
@@ -2562,7 +3895,7 @@
         <v>-220</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>6245</v>
       </c>
@@ -2603,7 +3936,7 @@
         <v>-217</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4147</v>
       </c>
@@ -2644,7 +3977,7 @@
         <v>-208</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>4528</v>
       </c>
@@ -2685,7 +4018,7 @@
         <v>-195</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>6568</v>
       </c>
@@ -2726,7 +4059,7 @@
         <v>-133</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>4947</v>
       </c>
@@ -2767,7 +4100,7 @@
         <v>-131</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>3293</v>
       </c>
@@ -2808,7 +4141,7 @@
         <v>-129</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>4803</v>
       </c>
@@ -2849,7 +4182,7 @@
         <v>-119</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>6138</v>
       </c>
@@ -2890,7 +4223,7 @@
         <v>-118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>5274</v>
       </c>
@@ -2931,7 +4264,7 @@
         <v>-103</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>3558</v>
       </c>
@@ -2972,7 +4305,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>4966</v>
       </c>
@@ -3013,7 +4346,7 @@
         <v>-78</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>4549</v>
       </c>
@@ -3054,7 +4387,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>8462</v>
       </c>
@@ -3095,7 +4428,7 @@
         <v>-73</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -3148,14 +4481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -3175,7 +4508,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3200,89 +4533,89 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>6182</v>
+        <v>3264</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9">
-        <v>4178</v>
+        <v>4354</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8">
-        <v>5483</v>
+        <v>6187</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G2" s="10">
-        <v>-3970</v>
+        <v>-1084</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="8">
-        <v>8069</v>
+        <v>5483</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K2" s="9">
-        <v>2597</v>
+        <v>2300</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="8">
-        <v>6488</v>
+        <v>4944</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="O2" s="10">
-        <v>-1246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+        <v>-1467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>3264</v>
+        <v>6182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9">
-        <v>3972</v>
+        <v>1383</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8">
-        <v>6187</v>
+        <v>5483</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G3" s="10">
-        <v>-1026</v>
+        <v>-895</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="8">
-        <v>3374</v>
+        <v>5347</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K3" s="9">
-        <v>1952</v>
+        <v>2246</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8">
-        <v>5483</v>
+        <v>8069</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O3" s="10">
-        <v>-1127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+        <v>-1231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3374</v>
       </c>
@@ -3290,81 +4623,81 @@
         <v>65</v>
       </c>
       <c r="C4" s="9">
-        <v>2193</v>
+        <v>1169</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="8">
-        <v>6290</v>
+        <v>6173</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="G4" s="10">
-        <v>-990</v>
+        <v>-793</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
-        <v>5425</v>
+        <v>6182</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="K4" s="9">
-        <v>1489</v>
+        <v>1136</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8">
-        <v>8121</v>
+        <v>3374</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="O4" s="10">
-        <v>-898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+        <v>-1151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>6180</v>
+        <v>6488</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="8">
-        <v>5425</v>
+        <v>6290</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10">
-        <v>-328</v>
+        <v>-470</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>6147</v>
+        <v>6462</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K5" s="9">
-        <v>1300</v>
+        <v>994</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8">
-        <v>5820</v>
+        <v>3707</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="O5" s="10">
-        <v>-698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+        <v>-821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3390</v>
       </c>
@@ -3372,27 +4705,27 @@
         <v>219</v>
       </c>
       <c r="C6" s="9">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="8">
-        <v>6568</v>
+        <v>6188</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G6" s="10">
-        <v>-319</v>
+        <v>-468</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="8">
-        <v>3105</v>
+        <v>3264</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K6" s="9">
-        <v>1235</v>
+        <v>646</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8">
@@ -3402,838 +4735,838 @@
         <v>115</v>
       </c>
       <c r="O6" s="10">
-        <v>-552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+        <v>-611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>5347</v>
+        <v>1565</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C7" s="9">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
-        <v>6173</v>
+        <v>6274</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="G7" s="10">
-        <v>-218</v>
+        <v>-418</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8">
-        <v>6107</v>
+        <v>5425</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="K7" s="9">
-        <v>1042</v>
+        <v>636</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8">
-        <v>8171</v>
+        <v>3323</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="O7" s="10">
-        <v>-548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+        <v>-588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>8183</v>
+        <v>6462</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C8" s="9">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="8">
-        <v>6238</v>
+        <v>2233</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G8" s="10">
-        <v>-212</v>
+        <v>-348</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="8">
-        <v>5347</v>
+        <v>6244</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="K8" s="9">
-        <v>830</v>
+        <v>614</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8">
-        <v>8406</v>
+        <v>6274</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="O8" s="10">
-        <v>-516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+        <v>-558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>6123</v>
+        <v>5289</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C9" s="9">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="8">
-        <v>4991</v>
+        <v>3105</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10">
-        <v>-200</v>
+        <v>-237</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8">
-        <v>6175</v>
+        <v>6290</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="K9" s="9">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8">
-        <v>6138</v>
+        <v>5371</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O9" s="10">
-        <v>-480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+        <v>-547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>6220</v>
+        <v>6147</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C10" s="9">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="8">
-        <v>3552</v>
+        <v>4162</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="G10" s="10">
-        <v>-177</v>
+        <v>-200</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="8">
-        <v>3264</v>
+        <v>6175</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="K10" s="9">
-        <v>744</v>
+        <v>474</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8">
-        <v>3260</v>
+        <v>4991</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O10" s="10">
-        <v>-364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+        <v>-522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>6488</v>
+        <v>8383</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8">
-        <v>4147</v>
+        <v>4991</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="G11" s="10">
-        <v>-145</v>
+        <v>-195</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="8">
-        <v>4991</v>
+        <v>6147</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K11" s="9">
-        <v>667</v>
+        <v>407</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8">
-        <v>6104</v>
+        <v>3625</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="O11" s="10">
-        <v>-343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+        <v>-511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>4966</v>
+        <v>6220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C12" s="9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8">
-        <v>3689</v>
+        <v>8183</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="G12" s="10">
-        <v>-122</v>
+        <v>-180</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="8">
-        <v>6274</v>
+        <v>5328</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="K12" s="9">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8">
-        <v>3630</v>
+        <v>6180</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="O12" s="10">
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+        <v>-481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>3563</v>
+        <v>6245</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8">
-        <v>6274</v>
+        <v>3552</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="G13" s="10">
-        <v>-87</v>
+        <v>-164</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8">
-        <v>6462</v>
+        <v>3217</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="K13" s="9">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8">
-        <v>6220</v>
+        <v>4714</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="O13" s="10">
-        <v>-305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+        <v>-356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>6245</v>
+        <v>3563</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C14" s="9">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="8">
-        <v>3491</v>
+        <v>3289</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="10">
-        <v>-86</v>
+        <v>-161</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8">
-        <v>6124</v>
+        <v>6104</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="K14" s="9">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8">
-        <v>6238</v>
+        <v>3630</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O14" s="10">
-        <v>-281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>6147</v>
+        <v>4736</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C15" s="9">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="8">
-        <v>4401</v>
+        <v>5425</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G15" s="10">
-        <v>-80</v>
+        <v>-149</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="8">
-        <v>5508</v>
+        <v>6187</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="K15" s="9">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8">
-        <v>3552</v>
+        <v>8049</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O15" s="10">
-        <v>-252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>4105</v>
+        <v>4528</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="8">
-        <v>5274</v>
+        <v>3689</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="G16" s="10">
-        <v>-65</v>
+        <v>-144</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="8">
-        <v>6298</v>
+        <v>5289</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="K16" s="9">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8">
-        <v>3081</v>
+        <v>6488</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="O16" s="10">
-        <v>-247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+        <v>-284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>4528</v>
+        <v>4129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="C17" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="8">
-        <v>3081</v>
+        <v>6238</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G17" s="10">
-        <v>-60</v>
+        <v>-115</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="8">
-        <v>5351</v>
+        <v>8436</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="K17" s="9">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8">
-        <v>4702</v>
+        <v>4903</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="O17" s="10">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+        <v>-283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>1565</v>
+        <v>9951</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="8">
-        <v>5230</v>
+        <v>3317</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="G18" s="10">
-        <v>-60</v>
+        <v>-101</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="8">
-        <v>3625</v>
+        <v>4107</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="K18" s="9">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8">
-        <v>6223</v>
+        <v>4721</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="O18" s="10">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>5439</v>
+        <v>3691</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="C19" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="8">
-        <v>3587</v>
+        <v>6411</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="G19" s="10">
-        <v>-52</v>
+        <v>-89</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="8">
-        <v>1815</v>
+        <v>6238</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="K19" s="9">
-        <v>312</v>
+        <v>196</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8">
-        <v>5014</v>
+        <v>8924</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="O19" s="10">
-        <v>-205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>8383</v>
+        <v>8255</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="C20" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="8">
-        <v>8091</v>
+        <v>4401</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="G20" s="10">
-        <v>-51</v>
+        <v>-84</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="8">
-        <v>4714</v>
+        <v>8287</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="K20" s="9">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8">
-        <v>5371</v>
+        <v>4528</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="O20" s="10">
-        <v>-204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>8938</v>
+        <v>4947</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="8">
-        <v>3293</v>
+        <v>6138</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G21" s="10">
-        <v>-50</v>
+        <v>-64</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="8">
-        <v>4907</v>
+        <v>1795</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="K21" s="9">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8">
-        <v>6275</v>
+        <v>8121</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O21" s="10">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>8279</v>
+        <v>1597</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C22" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="8">
-        <v>2233</v>
+        <v>6568</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G22" s="10">
-        <v>-39</v>
+        <v>-63</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="8">
-        <v>5340</v>
+        <v>6107</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K22" s="9">
-        <v>251</v>
+        <v>174</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8">
-        <v>5512</v>
+        <v>4947</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="O22" s="10">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>6188</v>
+        <v>8279</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="C23" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="8">
-        <v>8916</v>
+        <v>5230</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G23" s="10">
-        <v>-37</v>
+        <v>-60</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="8">
-        <v>6180</v>
+        <v>9951</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="K23" s="9">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8">
-        <v>3491</v>
+        <v>3552</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="O23" s="10">
-        <v>-161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+        <v>-229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>8436</v>
+        <v>5263</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="C24" s="9">
         <v>27</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="8">
-        <v>3529</v>
+        <v>3324</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="G24" s="10">
-        <v>-30</v>
+        <v>-54</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="8">
-        <v>3362</v>
+        <v>3272</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="K24" s="9">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8">
-        <v>1569</v>
+        <v>3078</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="O24" s="10">
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+        <v>-226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>5263</v>
+        <v>4126</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C25" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="8">
-        <v>8048</v>
+        <v>8091</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G25" s="10">
-        <v>-30</v>
+        <v>-52</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="8">
-        <v>5356</v>
+        <v>6121</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="K25" s="9">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8">
-        <v>3294</v>
+        <v>3373</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O25" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>4126</v>
+        <v>5478</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="C26" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="8">
-        <v>4162</v>
+        <v>3529</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="G26" s="10">
-        <v>-28</v>
+        <v>-50</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
-        <v>6244</v>
+        <v>4979</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="K26" s="9">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8">
-        <v>3323</v>
+        <v>8406</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="O26" s="10">
-        <v>-146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>9951</v>
+        <v>3081</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="8">
@@ -4243,161 +5576,161 @@
         <v>200</v>
       </c>
       <c r="G27" s="10">
-        <v>-27</v>
+        <v>-37</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="8">
-        <v>6290</v>
+        <v>3317</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="K27" s="9">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8">
-        <v>3088</v>
+        <v>5478</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="O27" s="10">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>8437</v>
+        <v>4107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
-        <v>2726</v>
+        <v>8916</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="G28" s="10">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="8">
-        <v>4167</v>
+        <v>2233</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="K28" s="9">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8">
-        <v>8086</v>
+        <v>6138</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O28" s="10">
-        <v>-141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>3152</v>
+        <v>4105</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C29" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
-        <v>3556</v>
+        <v>3491</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="G29" s="10">
-        <v>-25</v>
+        <v>-30</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="8">
-        <v>8924</v>
+        <v>5349</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="K29" s="9">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8">
-        <v>8299</v>
+        <v>6173</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="O29" s="10">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>8444</v>
+        <v>8406</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C30" s="9">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
-        <v>3105</v>
+        <v>3556</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="G30" s="10">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
-        <v>8043</v>
+        <v>4966</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="K30" s="9">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8">
-        <v>3324</v>
+        <v>6220</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="O30" s="10">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
-        <v>8299</v>
+        <v>5904</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C31" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="15">
         <v>8433</v>
@@ -4409,22 +5742,22 @@
         <v>-20</v>
       </c>
       <c r="I31" s="15">
-        <v>3227</v>
+        <v>6411</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="K31" s="17">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="M31" s="15">
-        <v>3707</v>
+        <v>6170</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="O31" s="17">
-        <v>-138</v>
+        <v>-195</v>
       </c>
     </row>
   </sheetData>
@@ -4447,14 +5780,1313 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4178</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-3970</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2597</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3972</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1026</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1952</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5483</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2193</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-990</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1489</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>8121</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6180</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="9">
+        <v>460</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-328</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1300</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="9">
+        <v>261</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-319</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1235</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9">
+        <v>224</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6173</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-218</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1042</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8171</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="9">
+        <v>190</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-212</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="9">
+        <v>830</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="9">
+        <v>180</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="9">
+        <v>790</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9">
+        <v>179</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-177</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>744</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>160</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-145</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>4991</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="9">
+        <v>667</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6104</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9">
+        <v>130</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3689</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-122</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9">
+        <v>461</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="9">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-87</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="9">
+        <v>403</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-86</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6124</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="9">
+        <v>376</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6238</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5508</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="9">
+        <v>350</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="9">
+        <v>340</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="9">
+        <v>335</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5230</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3625</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="9">
+        <v>324</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5439</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="9">
+        <v>312</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>8383</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8091</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-51</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4714</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="9">
+        <v>299</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="9">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>4907</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="9">
+        <v>258</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6275</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="9">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-39</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>5340</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="9">
+        <v>251</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-37</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="9">
+        <v>251</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3491</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3529</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="9">
+        <v>234</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>1569</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>8048</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5356</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="9">
+        <v>231</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="9">
+        <v>231</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3323</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>9951</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3227</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-27</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>230</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3088</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="9">
+        <v>218</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8924</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="9">
+        <v>208</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8444</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8043</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="9">
+        <v>190</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>8299</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>8433</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-20</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3227</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="17">
+        <v>187</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3707</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -4474,7 +7106,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +7131,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>8183</v>
       </c>
@@ -4540,7 +7172,7 @@
         <v>-1170</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>4105</v>
       </c>
@@ -4581,7 +7213,7 @@
         <v>-1006</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>8358</v>
       </c>
@@ -4622,7 +7254,7 @@
         <v>-1004</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3374</v>
       </c>
@@ -4663,7 +7295,7 @@
         <v>-754</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6138</v>
       </c>
@@ -4704,7 +7336,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3217</v>
       </c>
@@ -4745,7 +7377,7 @@
         <v>-643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6488</v>
       </c>
@@ -4786,7 +7418,7 @@
         <v>-501</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3068</v>
       </c>
@@ -4827,7 +7459,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3264</v>
       </c>
@@ -4868,7 +7500,7 @@
         <v>-397</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1795</v>
       </c>
@@ -4909,7 +7541,7 @@
         <v>-372</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6245</v>
       </c>
@@ -4950,7 +7582,7 @@
         <v>-328</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3152</v>
       </c>
@@ -4991,7 +7623,7 @@
         <v>-309</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>4966</v>
       </c>
@@ -5032,7 +7664,7 @@
         <v>-276</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3092</v>
       </c>
@@ -5073,7 +7705,7 @@
         <v>-236</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4721</v>
       </c>
@@ -5114,7 +7746,7 @@
         <v>-221</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>6554</v>
       </c>
@@ -5155,7 +7787,7 @@
         <v>-188</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>6274</v>
       </c>
@@ -5196,7 +7828,7 @@
         <v>-164</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>6223</v>
       </c>
@@ -5237,7 +7869,7 @@
         <v>-149</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3260</v>
       </c>
@@ -5278,7 +7910,7 @@
         <v>-137</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>4401</v>
       </c>
@@ -5319,7 +7951,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>5274</v>
       </c>
@@ -5360,7 +7992,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>6188</v>
       </c>
@@ -5401,7 +8033,7 @@
         <v>-119</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>5289</v>
       </c>
@@ -5442,7 +8074,7 @@
         <v>-111</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>5483</v>
       </c>
@@ -5483,7 +8115,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>3552</v>
       </c>
@@ -5524,7 +8156,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>8436</v>
       </c>
@@ -5565,7 +8197,7 @@
         <v>-94</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>1565</v>
       </c>
@@ -5606,7 +8238,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>6143</v>
       </c>
@@ -5647,7 +8279,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>4803</v>
       </c>
@@ -5688,7 +8320,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15">
         <v>5903</v>
       </c>
@@ -5745,15 +8377,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -5773,7 +8405,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5798,7 +8430,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>3092</v>
       </c>
@@ -5839,7 +8471,7 @@
         <v>-594</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1795</v>
       </c>
@@ -5880,7 +8512,7 @@
         <v>-493</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3217</v>
       </c>
@@ -5921,7 +8553,7 @@
         <v>-455</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>6488</v>
       </c>
@@ -5962,7 +8594,7 @@
         <v>-429</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4966</v>
       </c>
@@ -6003,7 +8635,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3068</v>
       </c>
@@ -6044,7 +8676,7 @@
         <v>-376</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6274</v>
       </c>
@@ -6085,7 +8717,7 @@
         <v>-372</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6279</v>
       </c>
@@ -6126,7 +8758,7 @@
         <v>-350</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8383</v>
       </c>
@@ -6167,7 +8799,7 @@
         <v>-323</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>6554</v>
       </c>
@@ -6208,7 +8840,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3105</v>
       </c>
@@ -6249,7 +8881,7 @@
         <v>-268</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>8916</v>
       </c>
@@ -6290,7 +8922,7 @@
         <v>-253</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3541</v>
       </c>
@@ -6331,7 +8963,7 @@
         <v>-237</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>4401</v>
       </c>
@@ -6372,7 +9004,7 @@
         <v>-207</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>6223</v>
       </c>
@@ -6413,7 +9045,7 @@
         <v>-202</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>6426</v>
       </c>
@@ -6454,7 +9086,7 @@
         <v>-195</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>8436</v>
       </c>
@@ -6495,7 +9127,7 @@
         <v>-194</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4174</v>
       </c>
@@ -6536,7 +9168,7 @@
         <v>-165</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>3324</v>
       </c>
@@ -6577,7 +9209,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>6510</v>
       </c>
@@ -6618,7 +9250,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3293</v>
       </c>
@@ -6659,7 +9291,7 @@
         <v>-128</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>5289</v>
       </c>
@@ -6700,7 +9332,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>4105</v>
       </c>
@@ -6741,7 +9373,7 @@
         <v>-114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>6446</v>
       </c>
@@ -6782,7 +9414,7 @@
         <v>-111</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>6548</v>
       </c>
@@ -6823,7 +9455,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -6858,7 +9490,7 @@
         <v>-101</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -6893,7 +9525,7 @@
         <v>-95</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -6928,7 +9560,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -6963,7 +9595,7 @@
         <v>-91</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -7014,15 +9646,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -7042,7 +9674,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -7067,7 +9699,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>5483</v>
       </c>
@@ -7108,7 +9740,7 @@
         <v>-3152</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3105</v>
       </c>
@@ -7149,7 +9781,7 @@
         <v>-498</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3092</v>
       </c>
@@ -7190,7 +9822,7 @@
         <v>-467</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>6147</v>
       </c>
@@ -7231,7 +9863,7 @@
         <v>-462</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3541</v>
       </c>
@@ -7272,7 +9904,7 @@
         <v>-427</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6488</v>
       </c>
@@ -7313,7 +9945,7 @@
         <v>-423</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6138</v>
       </c>
@@ -7354,7 +9986,7 @@
         <v>-423</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8916</v>
       </c>
@@ -7395,7 +10027,7 @@
         <v>-408</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4528</v>
       </c>
@@ -7436,7 +10068,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8436</v>
       </c>
@@ -7477,7 +10109,7 @@
         <v>-397</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4105</v>
       </c>
@@ -7518,7 +10150,7 @@
         <v>-388</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3068</v>
       </c>
@@ -7559,7 +10191,7 @@
         <v>-347</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>6446</v>
       </c>
@@ -7600,7 +10232,7 @@
         <v>-218</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6426</v>
       </c>
@@ -7641,7 +10273,7 @@
         <v>-196</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>3324</v>
       </c>
@@ -7682,7 +10314,7 @@
         <v>-184</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>6523</v>
       </c>
@@ -7723,7 +10355,7 @@
         <v>-181</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>8446</v>
       </c>
@@ -7764,7 +10396,7 @@
         <v>-178</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>6187</v>
       </c>
@@ -7805,7 +10437,7 @@
         <v>-167</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>8044</v>
       </c>
@@ -7846,7 +10478,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>4803</v>
       </c>
@@ -7887,7 +10519,7 @@
         <v>-154</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3491</v>
       </c>
@@ -7928,7 +10560,7 @@
         <v>-147</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>4174</v>
       </c>
@@ -7969,7 +10601,7 @@
         <v>-142</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="9"/>
@@ -8004,7 +10636,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9"/>
@@ -8039,7 +10671,7 @@
         <v>-118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="9"/>
@@ -8074,7 +10706,7 @@
         <v>-114</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -8109,7 +10741,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -8144,7 +10776,7 @@
         <v>-107</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -8179,7 +10811,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -8214,7 +10846,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -8265,15 +10897,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -8293,7 +10925,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -8318,7 +10950,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>6138</v>
       </c>
@@ -8359,7 +10991,7 @@
         <v>-1359</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>6488</v>
       </c>
@@ -8400,7 +11032,7 @@
         <v>-1172</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>6411</v>
       </c>
@@ -8441,7 +11073,7 @@
         <v>-969</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3264</v>
       </c>
@@ -8482,7 +11114,7 @@
         <v>-780</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2233</v>
       </c>
@@ -8523,7 +11155,7 @@
         <v>-556</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3541</v>
       </c>
@@ -8564,7 +11196,7 @@
         <v>-547</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>3217</v>
       </c>
@@ -8605,7 +11237,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4105</v>
       </c>
@@ -8646,7 +11278,7 @@
         <v>-441</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8358</v>
       </c>
@@ -8687,7 +11319,7 @@
         <v>-418</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8916</v>
       </c>
@@ -8728,7 +11360,7 @@
         <v>-285</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6274</v>
       </c>
@@ -8769,7 +11401,7 @@
         <v>-275</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>6187</v>
       </c>
@@ -8810,7 +11442,7 @@
         <v>-268</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>3068</v>
       </c>
@@ -8851,7 +11483,7 @@
         <v>-259</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6554</v>
       </c>
@@ -8892,7 +11524,7 @@
         <v>-250</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4947</v>
       </c>
@@ -8933,7 +11565,7 @@
         <v>-248</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>5289</v>
       </c>
@@ -8974,7 +11606,7 @@
         <v>-245</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>3324</v>
       </c>
@@ -9015,7 +11647,7 @@
         <v>-194</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4174</v>
       </c>
@@ -9056,7 +11688,7 @@
         <v>-175</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>4528</v>
       </c>
@@ -9097,7 +11729,7 @@
         <v>-166</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>3455</v>
       </c>
@@ -9138,7 +11770,7 @@
         <v>-163</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>4803</v>
       </c>
@@ -9179,7 +11811,7 @@
         <v>-154</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>5306</v>
       </c>
@@ -9220,7 +11852,7 @@
         <v>-153</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>4162</v>
       </c>
@@ -9261,7 +11893,7 @@
         <v>-124</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>4966</v>
       </c>
@@ -9302,7 +11934,7 @@
         <v>-121</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>5903</v>
       </c>
@@ -9343,7 +11975,7 @@
         <v>-111</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>6147</v>
       </c>
@@ -9384,7 +12016,7 @@
         <v>-108</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>6470</v>
       </c>
@@ -9425,7 +12057,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -9460,7 +12092,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -9495,7 +12127,7 @@
         <v>-97</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -9546,15 +12178,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -9574,7 +12206,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -9599,7 +12231,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>6187</v>
       </c>
@@ -9640,7 +12272,7 @@
         <v>-2165</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>6138</v>
       </c>
@@ -9681,7 +12313,7 @@
         <v>-1397</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3265</v>
       </c>
@@ -9722,7 +12354,7 @@
         <v>-1189</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3264</v>
       </c>
@@ -9763,7 +12395,7 @@
         <v>-1175</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5483</v>
       </c>
@@ -9804,7 +12436,7 @@
         <v>-1043</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4528</v>
       </c>
@@ -9845,7 +12477,7 @@
         <v>-731</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5425</v>
       </c>
@@ -9886,7 +12518,7 @@
         <v>-648</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5245</v>
       </c>
@@ -9927,7 +12559,7 @@
         <v>-636</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1752</v>
       </c>
@@ -9968,7 +12600,7 @@
         <v>-499</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>4105</v>
       </c>
@@ -10009,7 +12641,7 @@
         <v>-403</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4803</v>
       </c>
@@ -10050,7 +12682,7 @@
         <v>-341</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4947</v>
       </c>
@@ -10091,7 +12723,7 @@
         <v>-327</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>5439</v>
       </c>
@@ -10132,7 +12764,7 @@
         <v>-323</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2640</v>
       </c>
@@ -10173,7 +12805,7 @@
         <v>-274</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>8406</v>
       </c>
@@ -10214,7 +12846,7 @@
         <v>-268</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>4401</v>
       </c>
@@ -10255,7 +12887,7 @@
         <v>-243</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2926</v>
       </c>
@@ -10296,7 +12928,7 @@
         <v>-243</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>4549</v>
       </c>
@@ -10337,7 +12969,7 @@
         <v>-224</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>6470</v>
       </c>
@@ -10378,7 +13010,7 @@
         <v>-213</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="9"/>
@@ -10413,7 +13045,7 @@
         <v>-213</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="9"/>
@@ -10448,7 +13080,7 @@
         <v>-192</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="9"/>
@@ -10483,7 +13115,7 @@
         <v>-169</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="9"/>
@@ -10518,7 +13150,7 @@
         <v>-168</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="9"/>
@@ -10553,7 +13185,7 @@
         <v>-161</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="9"/>
@@ -10588,7 +13220,7 @@
         <v>-137</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
@@ -10623,7 +13255,7 @@
         <v>-126</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
@@ -10658,7 +13290,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -10693,7 +13325,7 @@
         <v>-119</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
@@ -10728,7 +13360,7 @@
         <v>-116</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -10779,15 +13411,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -10807,7 +13439,7 @@
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -10832,7 +13464,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>3105</v>
       </c>
@@ -10873,7 +13505,7 @@
         <v>-1758</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>4174</v>
       </c>
@@ -10914,7 +13546,7 @@
         <v>-1004</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>5483</v>
       </c>
@@ -10955,7 +13587,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4147</v>
       </c>
@@ -10996,7 +13628,7 @@
         <v>-841</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>6245</v>
       </c>
@@ -11037,7 +13669,7 @@
         <v>-607</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6488</v>
       </c>
@@ -11078,7 +13710,7 @@
         <v>-406</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>3264</v>
       </c>
@@ -11119,7 +13751,7 @@
         <v>-384</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6188</v>
       </c>
@@ -11160,7 +13792,7 @@
         <v>-382</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>5347</v>
       </c>
@@ -11201,7 +13833,7 @@
         <v>-371</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3455</v>
       </c>
@@ -11242,7 +13874,7 @@
         <v>-356</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>4528</v>
       </c>
@@ -11283,7 +13915,7 @@
         <v>-335</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>3217</v>
       </c>
@@ -11324,7 +13956,7 @@
         <v>-321</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>6435</v>
       </c>
@@ -11365,7 +13997,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6554</v>
       </c>
@@ -11406,7 +14038,7 @@
         <v>-290</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>8433</v>
       </c>
@@ -11447,7 +14079,7 @@
         <v>-268</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>8436</v>
       </c>
@@ -11488,7 +14120,7 @@
         <v>-242</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2233</v>
       </c>
@@ -11529,7 +14161,7 @@
         <v>-234</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>6187</v>
       </c>
@@ -11570,7 +14202,7 @@
         <v>-221</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>5274</v>
       </c>
@@ -11611,7 +14243,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>5530</v>
       </c>
@@ -11652,7 +14284,7 @@
         <v>-199</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>6138</v>
       </c>
@@ -11693,7 +14325,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>6568</v>
       </c>
@@ -11734,7 +14366,7 @@
         <v>-158</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>8044</v>
       </c>
@@ -11775,7 +14407,7 @@
         <v>-151</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>8916</v>
       </c>
@@ -11816,7 +14448,7 @@
         <v>-149</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>4803</v>
       </c>
@@ -11857,7 +14489,7 @@
         <v>-148</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>4105</v>
       </c>
@@ -11898,7 +14530,7 @@
         <v>-144</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>5230</v>
       </c>
@@ -11939,7 +14571,7 @@
         <v>-141</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
@@ -11974,7 +14606,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -12026,1265 +14658,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.5546875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1088</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>5009</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-230</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2734</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>8044</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-2459</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
-      <c r="A3" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9">
-        <v>785</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-218</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>8299</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1639</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>5347</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-2257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
-      <c r="A4" s="8">
-        <v>2233</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="9">
-        <v>516</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>4105</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-204</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1017</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-1323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="A5" s="8">
-        <v>8069</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9">
-        <v>500</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-200</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>5483</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="9">
-        <v>839</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-1141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="A6" s="8">
-        <v>8086</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="9">
-        <v>500</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6223</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-195</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>6188</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="9">
-        <v>620</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-1099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="A7" s="8">
-        <v>3455</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="9">
-        <v>357</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-190</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="9">
-        <v>522</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="A8" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9">
-        <v>282</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6147</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-173</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6238</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="9">
-        <v>480</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>4533</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="A9" s="8">
-        <v>6188</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9">
-        <v>217</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>6156</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-172</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>3152</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="9">
-        <v>474</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>8086</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="A10" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="9">
-        <v>165</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-170</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="9">
-        <v>468</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="A11" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="9">
-        <v>147</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>8916</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-129</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>1815</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="9">
-        <v>333</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>3615</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="A12" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="9">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-112</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>2233</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="9">
-        <v>322</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>3580</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="A13" s="8">
-        <v>6426</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="9">
-        <v>100</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-110</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3455</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="9">
-        <v>314</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>4939</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14" s="8">
-        <v>6435</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>6238</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-90</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="9">
-        <v>292</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
-      <c r="A15" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="9">
-        <v>75</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>6462</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-89</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>6223</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="9">
-        <v>275</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3324</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
-      <c r="A16" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="9">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>3374</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6121</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="9">
-        <v>260</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
-      <c r="A17" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9">
-        <v>46</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>3293</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3081</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="9">
-        <v>260</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>1565</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
-      <c r="A18" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9">
-        <v>42</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>8433</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-47</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>5443</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="9">
-        <v>240</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3289</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
-      <c r="A19" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="9">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>5274</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-37</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>4105</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="9">
-        <v>231</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>8913</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
-      <c r="A20" s="8">
-        <v>3483</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="9">
-        <v>35</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-34</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>4147</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="9">
-        <v>217</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>4123</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
-      <c r="A21" s="8">
-        <v>8358</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="9">
-        <v>28</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>5306</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-32</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>6190</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="9">
-        <v>216</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>5009</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
-      <c r="A22" s="8">
-        <v>8446</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="9">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1565</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="9">
-        <v>203</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>3224</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
-      <c r="A23" s="8">
-        <v>4947</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>3088</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="9">
-        <v>201</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>3234</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
-      <c r="A24" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>5013</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-21</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>6244</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="9">
-        <v>196</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>8183</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
-      <c r="A25" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="9">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>4188</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>8049</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="9">
-        <v>195</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
-      <c r="A26" s="8">
-        <v>3558</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="9">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-18</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>8446</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="9">
-        <v>185</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3526</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
-      <c r="A27" s="8">
-        <v>5904</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>2732</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>6207</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="9">
-        <v>151</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>4991</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
-      <c r="A28" s="8">
-        <v>6568</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="9">
-        <v>8</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>3581</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>4530</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K28" s="9">
-        <v>144</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>8406</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
-      <c r="A29" s="8">
-        <v>4549</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="9">
-        <v>4</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>5491</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K29" s="9">
-        <v>133</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>6173</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="19.2" thickBot="1">
-      <c r="A30" s="11">
-        <v>4162</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="14">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="11">
-        <v>8437</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="13">
-        <v>-12</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11">
-        <v>5452</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K30" s="14">
-        <v>129</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="11">
-        <v>3666</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" s="13">
-        <v>-117</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,78 +13,92 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061109" sheetId="14" r:id="rId2"/>
-    <sheet name="1061108" sheetId="13" r:id="rId3"/>
-    <sheet name="1060307" sheetId="12" r:id="rId4"/>
-    <sheet name="1060306" sheetId="11" r:id="rId5"/>
-    <sheet name="1060303" sheetId="9" r:id="rId6"/>
-    <sheet name="1060302" sheetId="8" r:id="rId7"/>
-    <sheet name="1060301" sheetId="6" r:id="rId8"/>
-    <sheet name="1060224" sheetId="1" r:id="rId9"/>
-    <sheet name="1060223" sheetId="5" r:id="rId10"/>
-    <sheet name="1060222" sheetId="7" r:id="rId11"/>
+    <sheet name="1061113" sheetId="16" r:id="rId2"/>
+    <sheet name="1061110" sheetId="15" r:id="rId3"/>
+    <sheet name="1061109" sheetId="14" r:id="rId4"/>
+    <sheet name="1061108" sheetId="13" r:id="rId5"/>
+    <sheet name="1060307" sheetId="12" r:id="rId6"/>
+    <sheet name="1060306" sheetId="11" r:id="rId7"/>
+    <sheet name="1060303" sheetId="9" r:id="rId8"/>
+    <sheet name="1060302" sheetId="8" r:id="rId9"/>
+    <sheet name="1060301" sheetId="6" r:id="rId10"/>
+    <sheet name="1060224" sheetId="1" r:id="rId11"/>
+    <sheet name="1060223" sheetId="5" r:id="rId12"/>
+    <sheet name="1060222" sheetId="7" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="10">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061113'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -121,107 +135,131 @@
   <connection id="8" name="連線1111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="9" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="連線11111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="10" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="連線111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="41" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="42" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="43" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="44" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="45" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="46" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="47" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="48" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="264">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +1004,60 @@
   </si>
   <si>
     <t>熱映</t>
+  </si>
+  <si>
+    <t>逸昌</t>
+  </si>
+  <si>
+    <t>宇峻</t>
+  </si>
+  <si>
+    <t>恒耀</t>
+  </si>
+  <si>
+    <t>博大</t>
+  </si>
+  <si>
+    <t>德麥</t>
+  </si>
+  <si>
+    <t>日揚</t>
+  </si>
+  <si>
+    <t>瀧澤科</t>
+  </si>
+  <si>
+    <t>森寶</t>
+  </si>
+  <si>
+    <t>光燿科</t>
+  </si>
+  <si>
+    <t>昱捷</t>
+  </si>
+  <si>
+    <t>曜越</t>
+  </si>
+  <si>
+    <t>安瑞-KY</t>
+  </si>
+  <si>
+    <t>熒茂</t>
+  </si>
+  <si>
+    <t>類比科</t>
+  </si>
+  <si>
+    <t>漢科</t>
+  </si>
+  <si>
+    <t>雙美</t>
+  </si>
+  <si>
+    <t>聚和</t>
+  </si>
+  <si>
+    <t>富驊</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1397,35 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1460,163 +1580,195 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1885,7 +2037,7 @@
   <dimension ref="C2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1926,6 +2078,2488 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9">
+        <v>758</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3526</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-660</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1574</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-2165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="9">
+        <v>543</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-554</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="9">
+        <v>833</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>1815</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3265</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>287</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-268</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8050</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="9">
+        <v>632</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3105</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-243</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="9">
+        <v>627</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5483</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-216</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="9">
+        <v>618</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-1043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9">
+        <v>133</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6147</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-210</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="9">
+        <v>481</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-150</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="9">
+        <v>417</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>5245</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="9">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-141</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9">
+        <v>360</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>5009</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1752</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="9">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3078</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-137</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3360</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="9">
+        <v>289</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>8358</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-137</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3299</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="9">
+        <v>274</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5349</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="9">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-82</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="9">
+        <v>272</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="9">
+        <v>260</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>5439</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-55</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="9">
+        <v>257</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6118</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>2640</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6143</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-51</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3324</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="9">
+        <v>233</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8406</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5013</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6187</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="9">
+        <v>228</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>5530</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4401</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="9">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3374</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="9">
+        <v>206</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2926</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3630</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="9">
+        <v>200</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>4549</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>5904</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5480</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="9">
+        <v>190</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>6470</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>6510</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3092</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="9">
+        <v>186</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5351</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6223</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>5356</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="9">
+        <v>182</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>4804</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="9">
+        <v>159</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3313</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8450</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-14</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3563</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="9">
+        <v>152</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8936</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>8050</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="9">
+        <v>151</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>6190</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>4903</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="9">
+        <v>149</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>8059</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3623</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6238</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="9">
+        <v>149</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3707</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3455</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="9">
+        <v>137</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>8437</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6411</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9">
+        <v>134</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>4163</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6125</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="9">
+        <v>129</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3211</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>8444</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>4126</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="9">
+        <v>123</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>3093</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-4</v>
+      </c>
+      <c r="I31" s="15">
+        <v>8049</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="17">
+        <v>117</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1258</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9">
+        <v>741</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1065</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1241</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>3105</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>4174</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="9">
+        <v>360</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-502</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1086</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9">
+        <v>357</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6156</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-428</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="9">
+        <v>828</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4147</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9">
+        <v>335</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-226</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="9">
+        <v>710</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>4533</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9">
+        <v>664</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9">
+        <v>111</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>8299</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-160</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="9">
+        <v>520</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>5439</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-150</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6238</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="9">
+        <v>503</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3362</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9">
+        <v>80</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>8358</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-118</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>5443</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="9">
+        <v>501</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>1565</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9">
+        <v>75</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>2233</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="9">
+        <v>391</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>5202</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3455</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-93</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6187</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="9">
+        <v>352</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-85</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3483</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="9">
+        <v>305</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>1584</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3088</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-73</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="9">
+        <v>274</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>5349</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6435</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-72</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>8050</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="9">
+        <v>263</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6446</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="9">
+        <v>257</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>8383</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8433</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="9">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-55</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>5009</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="9">
+        <v>253</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6411</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3092</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="9">
+        <v>239</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>8064</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2233</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="9">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5340</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="9">
+        <v>210</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3224</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-34</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3680</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="9">
+        <v>200</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5274</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-32</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>8085</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="9">
+        <v>183</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4991</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>5530</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>5013</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-29</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3152</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="9">
+        <v>162</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>6279</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="9">
+        <v>157</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>1569</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8069</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>8446</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="9">
+        <v>151</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3455</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>8044</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3265</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4903</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="9">
+        <v>142</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3441</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>5904</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9">
+        <v>139</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>6190</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="9">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4188</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>3313</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="9">
+        <v>138</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>8287</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3141</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="9">
+        <v>115</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>5230</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="9">
+        <v>114</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>4966</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3581</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3236</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="9">
+        <v>114</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11">
+        <v>4549</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="13">
+        <v>-15</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="11">
+        <v>2641</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="14">
+        <v>113</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="11">
+        <v>5491</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O30" s="13">
+        <v>-127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -3176,17 +5810,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4470,10 +7104,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4484,7 +7118,2605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1185</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-702</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1669</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-7104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>577</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-445</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1251</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>3707</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="9">
+        <v>533</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6104</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-225</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1184</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6180</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>513</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8183</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-112</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1042</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9">
+        <v>330</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-110</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="9">
+        <v>967</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4944</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="9">
+        <v>280</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-88</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>8064</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="9">
+        <v>958</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>1815</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>200</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-83</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="9">
+        <v>901</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9">
+        <v>200</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>4129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-77</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="9">
+        <v>778</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="9">
+        <v>165</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="9">
+        <v>415</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>3071</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9">
+        <v>100</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K11" s="9">
+        <v>413</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-49</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="9">
+        <v>351</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>5328</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="9">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3563</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>1795</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="9">
+        <v>345</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>3567</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="9">
+        <v>70</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="9">
+        <v>321</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9">
+        <v>69</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="9">
+        <v>312</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>4991</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4736</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="9">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6121</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="9">
+        <v>296</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3428</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>8091</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>1258</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-29</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="9">
+        <v>271</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4944</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9">
+        <v>46</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="9">
+        <v>261</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>1597</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="9">
+        <v>256</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>4714</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="9">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9">
+        <v>249</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3666</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="9">
+        <v>204</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3232</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="9">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="9">
+        <v>197</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3362</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="9">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6554</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="9">
+        <v>189</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="9">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>8109</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-12</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5478</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" s="9">
+        <v>185</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>5351</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9">
+        <v>22</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4105</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6609</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K25" s="9">
+        <v>171</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3541</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-7</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8171</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="9">
+        <v>161</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>8085</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>9951</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="9">
+        <v>160</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3540</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>8406</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" s="9">
+        <v>157</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8121</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>8450</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="9">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>6548</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8349</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="9">
+        <v>156</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="9">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>3489</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" s="9">
+        <v>150</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>3546</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="17">
+        <v>10</v>
+      </c>
+      <c r="E31" s="15">
+        <v>8433</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-20</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3552</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="17">
+        <v>139</v>
+      </c>
+      <c r="M31" s="15">
+        <v>6123</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-208</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>889</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1211</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2576</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="9">
+        <v>395</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3141</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-646</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>6182</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1522</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>385</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-599</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1199</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6175</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9">
+        <v>256</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-418</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1161</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>8091</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-386</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1022</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3526</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-370</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="9">
+        <v>866</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="9">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-340</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="9">
+        <v>767</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>5478</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-295</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="9">
+        <v>699</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3664</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4129</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-263</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="9">
+        <v>593</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9">
+        <v>563</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>5465</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-153</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9">
+        <v>522</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3489</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-125</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="9">
+        <v>508</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4528</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-120</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="9">
+        <v>455</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>4729</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4107</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-95</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5014</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="9">
+        <v>453</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-89</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="9">
+        <v>449</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="9">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-69</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3428</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="9">
+        <v>447</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3546</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="9">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>8358</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9">
+        <v>413</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3580</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="9">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="9">
+        <v>338</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3540</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>8450</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="9">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="9">
+        <v>336</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>6180</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>8044</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-35</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6104</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="9">
+        <v>325</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3088</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="9">
+        <v>323</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="9">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="9">
+        <v>322</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="9">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>8383</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4991</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="9">
+        <v>302</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8049</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5328</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="9">
+        <v>299</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3438</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-21</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1597</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="9">
+        <v>298</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3402</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="9">
+        <v>297</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>6238</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="9">
+        <v>292</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>8450</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="9">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3508</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="9">
+        <v>279</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="9">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6509</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" s="9">
+        <v>270</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6167</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>3546</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="17">
+        <v>10</v>
+      </c>
+      <c r="E31" s="15">
+        <v>8069</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-10</v>
+      </c>
+      <c r="I31" s="15">
+        <v>4966</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="17">
+        <v>265</v>
+      </c>
+      <c r="M31" s="15">
+        <v>4728</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -5769,17 +11001,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7068,17 +12300,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8367,17 +13599,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9636,17 +14868,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10887,17 +16119,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12168,2492 +17400,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9">
-        <v>758</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>3526</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-660</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1574</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-2165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="9">
-        <v>543</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-554</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="9">
-        <v>833</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>1815</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3265</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="9">
-        <v>287</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-268</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>8050</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="9">
-        <v>632</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>3105</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-1189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9">
-        <v>150</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-243</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>8086</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="9">
-        <v>627</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>5483</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-1175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="9">
-        <v>150</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-216</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="9">
-        <v>618</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-1043</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="9">
-        <v>133</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>6147</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-210</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="9">
-        <v>481</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>3374</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-731</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5425</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9">
-        <v>100</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-150</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6188</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="9">
-        <v>417</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>5245</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="9">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3105</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-141</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="9">
-        <v>360</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>5009</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-636</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1752</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="9">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>3078</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-137</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3360</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" s="9">
-        <v>289</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>4702</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="9">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>8358</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-137</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3299</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="9">
-        <v>274</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>5349</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="9">
-        <v>20</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3293</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-82</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="9">
-        <v>272</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>6182</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>4947</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="9">
-        <v>260</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>5439</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9">
-        <v>17</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-55</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9">
-        <v>257</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>6118</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>2640</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="9">
-        <v>15</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>6143</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-51</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>3324</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="9">
-        <v>233</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>8406</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="9">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>5013</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6187</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="9">
-        <v>228</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>5530</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>4401</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="9">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>3374</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>6298</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="9">
-        <v>206</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>2926</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>4966</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-33</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3630</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="9">
-        <v>200</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>6244</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>4549</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>5904</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-26</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>5480</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K19" s="9">
-        <v>190</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>3081</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>6470</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>6510</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-22</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3092</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="9">
-        <v>186</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>5351</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>6223</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>5356</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K21" s="9">
-        <v>182</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>4804</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-18</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="9">
-        <v>159</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>3313</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>8450</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-14</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>3563</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="9">
-        <v>152</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>8936</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>8050</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="9">
-        <v>151</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>6190</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>1565</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>4903</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="9">
-        <v>149</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>8059</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>3623</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6238</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="9">
-        <v>149</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3707</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>5274</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3455</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="9">
-        <v>137</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>8437</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>6411</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="9">
-        <v>134</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>6462</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>4163</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-5</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6125</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="9">
-        <v>129</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>3211</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>8444</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-5</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>4126</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="9">
-        <v>123</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>3078</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>3093</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-4</v>
-      </c>
-      <c r="I31" s="15">
-        <v>8049</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="17">
-        <v>117</v>
-      </c>
-      <c r="M31" s="15">
-        <v>1258</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="9">
-        <v>741</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1065</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>3374</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1241</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>3105</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>4174</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="9">
-        <v>360</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>1569</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-502</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>8086</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1086</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>8044</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="9">
-        <v>357</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>6156</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-428</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>6188</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="9">
-        <v>828</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4147</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9">
-        <v>335</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-226</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="9">
-        <v>710</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>4533</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9">
-        <v>120</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-200</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9">
-        <v>664</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9">
-        <v>111</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>8299</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-160</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>8069</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="9">
-        <v>520</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9">
-        <v>100</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>5439</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-150</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6238</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="9">
-        <v>503</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>3362</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>6188</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="9">
-        <v>80</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>8358</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-118</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>5443</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="9">
-        <v>501</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>1565</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
-        <v>75</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-99</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>2233</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="9">
-        <v>391</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>5202</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>3455</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="9">
-        <v>70</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>4947</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-93</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>6187</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="9">
-        <v>352</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="9">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-85</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>3483</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="9">
-        <v>305</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>1584</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="9">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>3088</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-73</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="9">
-        <v>274</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>5349</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6435</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="9">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-72</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>8050</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="9">
-        <v>263</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>6446</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="9">
-        <v>257</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>8383</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>8433</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="9">
-        <v>50</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-55</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>5009</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="9">
-        <v>253</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>6244</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9">
-        <v>50</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>6411</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-45</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3092</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="9">
-        <v>239</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>8064</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>2233</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="9">
-        <v>49</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-41</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>5340</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K18" s="9">
-        <v>210</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3224</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>1565</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-34</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>3680</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="9">
-        <v>200</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>6274</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>5274</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="9">
-        <v>37</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>5425</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-32</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>8085</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="9">
-        <v>183</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>4991</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>5530</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="9">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>5013</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-29</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>3152</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="9">
-        <v>162</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>5014</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9">
-        <v>25</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>6279</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-26</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="9">
-        <v>157</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>1569</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>6568</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="9">
-        <v>20</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>8069</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-26</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>8446</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="9">
-        <v>151</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>3455</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>8044</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>3265</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-24</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>4903</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="9">
-        <v>142</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>3441</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>8916</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="9">
-        <v>20</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>5904</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-23</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="9">
-        <v>139</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>6190</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="9">
-        <v>11</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>4188</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>3313</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="9">
-        <v>138</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>8287</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="9">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3141</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-17</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3081</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="9">
-        <v>115</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>5347</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>5230</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-17</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>3078</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K28" s="9">
-        <v>114</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>4966</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3581</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-15</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3236</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K29" s="9">
-        <v>114</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="11">
-        <v>4549</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="13">
-        <v>-15</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="11">
-        <v>2641</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="14">
-        <v>113</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="11">
-        <v>5491</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="O30" s="13">
-        <v>-127</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,92 +13,99 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061113" sheetId="16" r:id="rId2"/>
-    <sheet name="1061110" sheetId="15" r:id="rId3"/>
-    <sheet name="1061109" sheetId="14" r:id="rId4"/>
-    <sheet name="1061108" sheetId="13" r:id="rId5"/>
-    <sheet name="1060307" sheetId="12" r:id="rId6"/>
-    <sheet name="1060306" sheetId="11" r:id="rId7"/>
-    <sheet name="1060303" sheetId="9" r:id="rId8"/>
-    <sheet name="1060302" sheetId="8" r:id="rId9"/>
-    <sheet name="1060301" sheetId="6" r:id="rId10"/>
-    <sheet name="1060224" sheetId="1" r:id="rId11"/>
-    <sheet name="1060223" sheetId="5" r:id="rId12"/>
-    <sheet name="1060222" sheetId="7" r:id="rId13"/>
+    <sheet name="1061114" sheetId="17" r:id="rId2"/>
+    <sheet name="1061113" sheetId="16" r:id="rId3"/>
+    <sheet name="1061110" sheetId="15" r:id="rId4"/>
+    <sheet name="1061109" sheetId="14" r:id="rId5"/>
+    <sheet name="1061108" sheetId="13" r:id="rId6"/>
+    <sheet name="1060307" sheetId="12" r:id="rId7"/>
+    <sheet name="1060306" sheetId="11" r:id="rId8"/>
+    <sheet name="1060303" sheetId="9" r:id="rId9"/>
+    <sheet name="1060302" sheetId="8" r:id="rId10"/>
+    <sheet name="1060301" sheetId="6" r:id="rId11"/>
+    <sheet name="1060224" sheetId="1" r:id="rId12"/>
+    <sheet name="1060223" sheetId="5" r:id="rId13"/>
+    <sheet name="1060222" sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="12">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061114'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -141,125 +148,137 @@
   <connection id="10" name="連線111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="11" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="連線1111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="49" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="50" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="51" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="52" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="275">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,6 +1077,39 @@
   </si>
   <si>
     <t>富驊</t>
+  </si>
+  <si>
+    <t>同亨</t>
+  </si>
+  <si>
+    <t>中菲行</t>
+  </si>
+  <si>
+    <t>華韡</t>
+  </si>
+  <si>
+    <t>宣德</t>
+  </si>
+  <si>
+    <t>精確</t>
+  </si>
+  <si>
+    <t>律勝</t>
+  </si>
+  <si>
+    <t>磐亞</t>
+  </si>
+  <si>
+    <t>信音</t>
+  </si>
+  <si>
+    <t>益通</t>
+  </si>
+  <si>
+    <t>富強鑫</t>
+  </si>
+  <si>
+    <t>立凱-KY</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1449,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1580,195 +1646,211 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2037,7 +2119,7 @@
   <dimension ref="C2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2078,6 +2160,1287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9">
+        <v>515</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-509</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2339</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9">
+        <v>293</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-451</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1209</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6411</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9">
+        <v>200</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-448</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>4716</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1181</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9">
+        <v>199</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-432</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="9">
+        <v>946</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3264</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>2233</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="9">
+        <v>175</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>8069</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-400</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="9">
+        <v>691</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3541</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="9">
+        <v>170</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-307</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="9">
+        <v>664</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6187</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9">
+        <v>133</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6143</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-237</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>1569</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9">
+        <v>590</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="9">
+        <v>124</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6462</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-203</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="9">
+        <v>515</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8358</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
+        <v>119</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4971</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-151</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>5009</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="9">
+        <v>433</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="9">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-146</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="9">
+        <v>426</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>8299</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="9">
+        <v>380</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="9">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-95</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3630</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="9">
+        <v>375</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-85</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6446</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="9">
+        <v>373</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>8096</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="9">
+        <v>274</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="9">
+        <v>268</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3236</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="9">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3224</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="9">
+        <v>244</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3324</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3374</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>1752</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="9">
+        <v>231</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>1815</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>4174</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>6279</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="9">
+        <v>225</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="9">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>5013</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-38</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3558</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="9">
+        <v>201</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>3455</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="9">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3623</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-32</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>5480</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="9">
+        <v>197</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3360</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="9">
+        <v>194</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>4105</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>5306</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="9">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>6510</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="9">
+        <v>188</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>5315</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>4162</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>5347</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3548</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" s="9">
+        <v>184</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8059</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>4188</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="9">
+        <v>181</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>5903</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-14</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>2233</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="9">
+        <v>171</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3680</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4549</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="9">
+        <v>139</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>6121</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>6470</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>8050</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>1584</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="9">
+        <v>134</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>4991</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3092</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8050</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="9">
+        <v>118</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6129</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>5904</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="9">
+        <v>115</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3483</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>6188</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-5</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5306</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="17">
+        <v>113</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5530</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3300,17 +4663,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -4549,17 +5912,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -5810,17 +7173,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7104,10 +8467,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7118,8 +8481,1307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="9">
+        <v>756</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1162</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="9">
+        <v>3339</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9">
+        <v>296</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-554</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1831</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>228</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6173</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-326</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1205</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9">
+        <v>190</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-310</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9">
+        <v>935</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="9">
+        <v>188</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3526</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-141</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>842</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6190</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="9">
+        <v>163</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>8924</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="9">
+        <v>827</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>5351</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-85</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5481</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="9">
+        <v>744</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="9">
+        <v>728</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-74</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="9">
+        <v>619</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>1815</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="9">
+        <v>90</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-70</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="9">
+        <v>529</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>8349</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9">
+        <v>79</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>5820</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-66</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>5457</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="9">
+        <v>482</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6121</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="9">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>5609</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>8358</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9">
+        <v>468</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3354</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>5465</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="9">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="9">
+        <v>428</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>8064</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8383</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="9">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="9">
+        <v>395</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>4707</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K16" s="9">
+        <v>346</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>8436</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="9">
+        <v>331</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>6609</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1815</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="9">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="9">
+        <v>323</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>4947</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
+        <v>35</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="9">
+        <v>308</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>8171</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="9">
+        <v>32</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8086</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>8287</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="9">
+        <v>296</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6188</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="9">
+        <v>31</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6279</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-35</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3162</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K21" s="9">
+        <v>287</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>8183</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>8450</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="9">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>5263</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6121</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="9">
+        <v>284</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3666</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3689</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="9">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>8299</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9">
+        <v>281</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>5490</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="9">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3563</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="9">
+        <v>275</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>6126</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9">
+        <v>15</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>8121</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="9">
+        <v>258</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3452</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6104</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" s="9">
+        <v>238</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>6175</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>5478</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="9">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>4803</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>4105</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="9">
+        <v>227</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>8096</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-14</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4147</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="9">
+        <v>208</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>6207</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>4549</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="9">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>8109</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6187</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="9">
+        <v>204</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>4714</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8044</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8462</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="9">
+        <v>202</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6129</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>3691</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="17">
+        <v>3</v>
+      </c>
+      <c r="E31" s="15">
+        <v>4105</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-10</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5227</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="17">
+        <v>193</v>
+      </c>
+      <c r="M31" s="15">
+        <v>6603</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -8326,15 +10988,9 @@
         <v>12</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>3556</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-25</v>
-      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="7"/>
       <c r="I30" s="8">
         <v>3489</v>
@@ -8366,15 +11022,9 @@
       <c r="C31" s="17">
         <v>10</v>
       </c>
-      <c r="E31" s="15">
-        <v>8433</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-20</v>
-      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
       <c r="I31" s="15">
         <v>3552</v>
       </c>
@@ -8403,22 +11053,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -9533,15 +12183,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>6238</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="6"/>
       <c r="E28" s="8">
         <v>6290</v>
@@ -9574,15 +12218,9 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>8450</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="9">
-        <v>13</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="6"/>
       <c r="E29" s="8">
         <v>5903</v>
@@ -9615,15 +12253,9 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>5263</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="9">
-        <v>12</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6"/>
       <c r="E30" s="8">
         <v>3611</v>
@@ -9656,15 +12288,9 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
-        <v>3546</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="17">
-        <v>10</v>
-      </c>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="E31" s="15">
         <v>8069</v>
       </c>
@@ -9702,17 +12328,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11001,17 +13627,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12300,17 +14926,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13599,17 +16225,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14868,17 +17494,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16119,1287 +18745,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="9">
-        <v>515</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>3293</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-509</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>5483</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2339</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6274</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="9">
-        <v>293</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-451</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1209</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>6411</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="9">
-        <v>200</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>1569</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-448</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>4716</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1181</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9">
-        <v>199</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-432</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="9">
-        <v>946</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>3264</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>2233</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="9">
-        <v>175</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>8069</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-400</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>6488</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="9">
-        <v>691</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6138</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>3541</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="9">
-        <v>170</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>3105</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-307</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="9">
-        <v>664</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>6187</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="9">
-        <v>133</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6143</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-237</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>1569</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="9">
-        <v>590</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>8086</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="9">
-        <v>124</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>6462</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-203</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" s="9">
-        <v>515</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>8358</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9">
-        <v>119</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>4971</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-151</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>5009</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="9">
-        <v>433</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>8916</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="9">
-        <v>92</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-146</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>8069</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="9">
-        <v>426</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>6274</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9">
-        <v>67</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>8299</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>3374</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="9">
-        <v>380</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9">
-        <v>55</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-95</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>3630</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K13" s="9">
-        <v>375</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="9">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-85</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>6446</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="9">
-        <v>373</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>8096</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="9">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-80</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>6244</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="9">
-        <v>274</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>5340</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4947</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="9">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6190</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="9">
-        <v>268</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3236</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>5289</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="9">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-52</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3224</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="9">
-        <v>244</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>6462</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3324</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>3374</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>1752</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="9">
-        <v>231</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>1815</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>4174</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9">
-        <v>23</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>6279</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="9">
-        <v>225</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>6173</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>5013</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-38</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3558</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="9">
-        <v>201</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>6411</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>3455</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>3623</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-32</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>5480</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K21" s="9">
-        <v>197</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>3360</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="9">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1565</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="9">
-        <v>194</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>4105</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>5306</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="9">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>6510</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="9">
-        <v>188</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>5315</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>4162</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>5347</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-22</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3548</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="9">
-        <v>184</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>8059</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>4188</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" s="9">
-        <v>181</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3078</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>5903</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>5274</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-14</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>2233</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="9">
-        <v>171</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3680</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>4549</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>8436</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="9">
-        <v>139</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>6121</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>6470</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>8050</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>1584</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="9">
-        <v>134</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>4991</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3092</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>8050</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="9">
-        <v>118</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>6129</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>5904</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-5</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="9">
-        <v>115</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>3483</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>6188</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-5</v>
-      </c>
-      <c r="I31" s="15">
-        <v>5306</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="17">
-        <v>113</v>
-      </c>
-      <c r="M31" s="15">
-        <v>5530</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">

--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,99 +13,106 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061114" sheetId="17" r:id="rId2"/>
-    <sheet name="1061113" sheetId="16" r:id="rId3"/>
-    <sheet name="1061110" sheetId="15" r:id="rId4"/>
-    <sheet name="1061109" sheetId="14" r:id="rId5"/>
-    <sheet name="1061108" sheetId="13" r:id="rId6"/>
-    <sheet name="1060307" sheetId="12" r:id="rId7"/>
-    <sheet name="1060306" sheetId="11" r:id="rId8"/>
-    <sheet name="1060303" sheetId="9" r:id="rId9"/>
-    <sheet name="1060302" sheetId="8" r:id="rId10"/>
-    <sheet name="1060301" sheetId="6" r:id="rId11"/>
-    <sheet name="1060224" sheetId="1" r:id="rId12"/>
-    <sheet name="1060223" sheetId="5" r:id="rId13"/>
-    <sheet name="1060222" sheetId="7" r:id="rId14"/>
+    <sheet name="1061115" sheetId="18" r:id="rId2"/>
+    <sheet name="1061114" sheetId="17" r:id="rId3"/>
+    <sheet name="1061113" sheetId="16" r:id="rId4"/>
+    <sheet name="1061110" sheetId="15" r:id="rId5"/>
+    <sheet name="1061109" sheetId="14" r:id="rId6"/>
+    <sheet name="1061108" sheetId="13" r:id="rId7"/>
+    <sheet name="1060307" sheetId="12" r:id="rId8"/>
+    <sheet name="1060306" sheetId="11" r:id="rId9"/>
+    <sheet name="1060303" sheetId="9" r:id="rId10"/>
+    <sheet name="1060302" sheetId="8" r:id="rId11"/>
+    <sheet name="1060301" sheetId="6" r:id="rId12"/>
+    <sheet name="1060224" sheetId="1" r:id="rId13"/>
+    <sheet name="1060223" sheetId="5" r:id="rId14"/>
+    <sheet name="1060222" sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="13">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061115'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -151,134 +158,146 @@
   <connection id="11" name="連線1111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="12" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="12" name="連線11111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="53" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="54" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="55" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="56" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="278">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,6 +1129,15 @@
   </si>
   <si>
     <t>立凱-KY</t>
+  </si>
+  <si>
+    <t>應華</t>
+  </si>
+  <si>
+    <t>方土昶</t>
+  </si>
+  <si>
+    <t>和勤</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1477,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1646,211 +1688,227 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2164,6 +2222,1257 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9">
+        <v>608</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-550</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1184</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-3152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9">
+        <v>529</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-386</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>560</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6188</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3092</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9">
+        <v>358</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>1795</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-284</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="9">
+        <v>545</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="9">
+        <v>306</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3374</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-230</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="9">
+        <v>517</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3541</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="9">
+        <v>225</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-197</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="9">
+        <v>440</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9">
+        <v>199</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-132</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>2233</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="9">
+        <v>384</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9">
+        <v>166</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-130</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>8299</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9">
+        <v>362</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9">
+        <v>157</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6462</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-129</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="9">
+        <v>333</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6187</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="9">
+        <v>120</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-128</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6101</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="9">
+        <v>330</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>5009</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9">
+        <v>91</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>1752</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="9">
+        <v>304</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="9">
+        <v>87</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>8942</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K12" s="9">
+        <v>300</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3092</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="9">
+        <v>281</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6446</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="9">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3689</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-75</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6167</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="9">
+        <v>248</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6426</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="9">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-61</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4903</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="9">
+        <v>235</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3548</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>3324</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>6143</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="9">
+        <v>208</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6523</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="9">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>5306</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3234</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="9">
+        <v>191</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>5201</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>8446</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5347</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3299</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="9">
+        <v>178</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>5315</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6187</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>8299</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3176</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="9">
+        <v>170</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>8044</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>1584</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="9">
+        <v>169</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4716</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>4736</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6129</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="9">
+        <v>162</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>4739</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3491</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-29</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="9">
+        <v>156</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>5530</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4174</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="9">
+        <v>153</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8050</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6185</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="9">
+        <v>152</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3264</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>8938</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6279</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="9">
+        <v>152</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4163</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6446</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="9">
+        <v>149</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3508</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>8255</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="9">
+        <v>146</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6238</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="9">
+        <v>142</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3581</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3483</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="9">
+        <v>139</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>5905</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="9">
+        <v>139</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>2732</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-14</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3191</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="17">
+        <v>138</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8064</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -3440,7 +4749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4673,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -5922,7 +7231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -7183,7 +8492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8482,6 +9791,1269 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="9">
+        <v>594</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1110</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>9267</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>8924</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9">
+        <v>510</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-753</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3514</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9">
+        <v>232</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-271</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2142</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9">
+        <v>165</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6147</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-258</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1699</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3105</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9">
+        <v>131</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1544</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="9">
+        <v>116</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>5371</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-168</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="9">
+        <v>958</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>5457</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-162</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="9">
+        <v>815</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3264</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="9">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="9">
+        <v>670</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>93</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3390</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10" s="9">
+        <v>606</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>4903</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>5392</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K11" s="9">
+        <v>421</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="9">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-77</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9">
+        <v>367</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="9">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-71</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="9">
+        <v>347</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-56</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3141</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="9">
+        <v>341</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="9">
+        <v>50</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>5289</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3666</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="9">
+        <v>328</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3162</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>5490</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="9">
+        <v>306</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>1815</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="9">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="9">
+        <v>223</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>8096</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3587</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="9">
+        <v>218</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6187</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5490</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="9">
+        <v>213</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3141</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>6265</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="9">
+        <v>184</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5356</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-19</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>8121</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="9">
+        <v>174</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5478</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3529</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>5530</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="9">
+        <v>172</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3558</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="9">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="9">
+        <v>168</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="9">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-8</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>1586</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K24" s="9">
+        <v>157</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="9">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-7</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3202</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="9">
+        <v>148</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="9">
+        <v>145</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>4971</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>8299</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="9">
+        <v>145</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4126</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="9">
+        <v>134</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8091</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5904</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-4</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>4702</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="9">
+        <v>123</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3581</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>8462</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-4</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>1795</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="9">
+        <v>120</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>1264</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3323</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K31" s="17">
+        <v>117</v>
+      </c>
+      <c r="M31" s="15">
+        <v>4721</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-111</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -9766,17 +12338,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11063,7 +13635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12338,7 +14910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13637,7 +16209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14936,7 +17508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16235,7 +18807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17502,1255 +20074,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="9">
-        <v>608</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-550</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1184</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-3152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9">
-        <v>529</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-386</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="9">
-        <v>560</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>6188</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3092</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9">
-        <v>358</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>1795</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-284</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="9">
-        <v>545</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6274</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="9">
-        <v>306</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>3374</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-230</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="9">
-        <v>517</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3541</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="9">
-        <v>225</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>3587</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-197</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="9">
-        <v>440</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9">
-        <v>199</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-132</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>2233</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="9">
-        <v>384</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>6138</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9">
-        <v>166</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-130</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>8299</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="9">
-        <v>362</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8916</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="9">
-        <v>157</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>6462</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-129</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>3323</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="9">
-        <v>333</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6187</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="9">
-        <v>120</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>3264</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-128</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>6101</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="9">
-        <v>330</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>5009</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9">
-        <v>91</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>1752</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="9">
-        <v>304</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9">
-        <v>87</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3152</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>8942</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K12" s="9">
-        <v>300</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>3092</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="9">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>5425</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="9">
-        <v>281</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>5425</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6446</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="9">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>3689</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-75</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>6167</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="9">
-        <v>248</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>6426</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="9">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>8433</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-61</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>4903</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="9">
-        <v>235</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3548</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>3324</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>6143</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-52</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6190</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="9">
-        <v>208</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3078</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>6523</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="9">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>5306</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-45</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3234</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="9">
-        <v>191</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>5201</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>8446</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>5347</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3299</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" s="9">
-        <v>178</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>5315</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>6187</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>8299</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>3176</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="9">
-        <v>170</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>8044</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="9">
-        <v>7</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>1584</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="9">
-        <v>169</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>4716</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>4736</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>6129</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="9">
-        <v>162</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>4739</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>3491</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="9">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>1565</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-29</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>3374</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="9">
-        <v>156</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>5530</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>4174</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-28</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>3081</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="9">
-        <v>153</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>8050</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>6188</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-26</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>6185</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" s="9">
-        <v>152</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>3264</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>8938</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-22</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>6279</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="9">
-        <v>152</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>6173</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>4163</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6446</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="9">
-        <v>149</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3508</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>8255</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K27" s="9">
-        <v>146</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>6411</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>3552</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-18</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>6238</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="9">
-        <v>142</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3581</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3483</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="9">
-        <v>139</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>5340</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>4966</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>5905</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K30" s="9">
-        <v>139</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>5014</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>2732</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-14</v>
-      </c>
-      <c r="I31" s="15">
-        <v>3191</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="K31" s="17">
-        <v>138</v>
-      </c>
-      <c r="M31" s="15">
-        <v>8064</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-77</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -9,110 +9,117 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061115" sheetId="18" r:id="rId2"/>
-    <sheet name="1061114" sheetId="17" r:id="rId3"/>
-    <sheet name="1061113" sheetId="16" r:id="rId4"/>
-    <sheet name="1061110" sheetId="15" r:id="rId5"/>
-    <sheet name="1061109" sheetId="14" r:id="rId6"/>
-    <sheet name="1061108" sheetId="13" r:id="rId7"/>
-    <sheet name="1060307" sheetId="12" r:id="rId8"/>
-    <sheet name="1060306" sheetId="11" r:id="rId9"/>
-    <sheet name="1060303" sheetId="9" r:id="rId10"/>
-    <sheet name="1060302" sheetId="8" r:id="rId11"/>
-    <sheet name="1060301" sheetId="6" r:id="rId12"/>
-    <sheet name="1060224" sheetId="1" r:id="rId13"/>
-    <sheet name="1060223" sheetId="5" r:id="rId14"/>
-    <sheet name="1060222" sheetId="7" r:id="rId15"/>
+    <sheet name="1061116" sheetId="19" r:id="rId2"/>
+    <sheet name="1061115" sheetId="18" r:id="rId3"/>
+    <sheet name="1061114" sheetId="17" r:id="rId4"/>
+    <sheet name="1061113" sheetId="16" r:id="rId5"/>
+    <sheet name="1061110" sheetId="15" r:id="rId6"/>
+    <sheet name="1061109" sheetId="14" r:id="rId7"/>
+    <sheet name="1061108" sheetId="13" r:id="rId8"/>
+    <sheet name="1060307" sheetId="12" r:id="rId9"/>
+    <sheet name="1060306" sheetId="11" r:id="rId10"/>
+    <sheet name="1060303" sheetId="9" r:id="rId11"/>
+    <sheet name="1060302" sheetId="8" r:id="rId12"/>
+    <sheet name="1060301" sheetId="6" r:id="rId13"/>
+    <sheet name="1060224" sheetId="1" r:id="rId14"/>
+    <sheet name="1060223" sheetId="5" r:id="rId15"/>
+    <sheet name="1060222" sheetId="7" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="14">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061116'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -161,143 +168,155 @@
   <connection id="12" name="連線11111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="13" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="13" name="連線111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="57" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="58" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="59" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="60" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="283">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,6 +1157,21 @@
   </si>
   <si>
     <t>和勤</t>
+  </si>
+  <si>
+    <t>福盈科</t>
+  </si>
+  <si>
+    <t>驊宏資</t>
+  </si>
+  <si>
+    <t>通訊-KY</t>
+  </si>
+  <si>
+    <t>昇華</t>
+  </si>
+  <si>
+    <t>磐儀</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1511,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1688,227 +1736,243 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2222,6 +2286,1275 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>3092</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>292</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-853</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="9">
+        <v>849</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1795</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="9">
+        <v>230</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6220</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-323</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="9">
+        <v>640</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="9">
+        <v>200</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6147</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-238</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="9">
+        <v>457</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>129</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6156</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-221</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6187</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="9">
+        <v>455</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5530</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="9">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-150</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>8183</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="9">
+        <v>438</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="9">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-143</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="9">
+        <v>432</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9">
+        <v>63</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3141</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-108</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6121</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="9">
+        <v>426</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8936</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6279</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9">
+        <v>52</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>5347</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-105</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9">
+        <v>421</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3483</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8383</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>8069</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="9">
+        <v>377</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6279</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="9">
+        <v>346</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>3105</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>8938</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-79</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>5009</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="9">
+        <v>329</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>4174</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="9">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>4903</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="9">
+        <v>322</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>3541</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="9">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-54</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3455</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="9">
+        <v>303</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6129</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>4401</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="9">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3623</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="9">
+        <v>290</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>5351</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6223</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="9">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>3265</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="9">
+        <v>275</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6426</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="9">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6245</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-48</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="9">
+        <v>268</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="9">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4736</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-35</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9">
+        <v>250</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3675</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>4174</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="9">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>5306</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="9">
+        <v>234</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3092</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3324</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>4417</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>6426</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="9">
+        <v>233</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>3498</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="9">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>8406</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6173</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="9">
+        <v>221</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6118</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="9">
+        <v>214</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="9">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-19</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6167</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="9">
+        <v>211</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3526</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="9">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>8450</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-14</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>5328</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" s="9">
+        <v>202</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>6446</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="9">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>8446</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-12</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3299</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="9">
+        <v>198</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>8050</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6548</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1565</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="9">
+        <v>170</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>2641</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="9">
+        <v>170</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>6104</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6470</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>2233</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="9">
+        <v>166</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>8050</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="9">
+        <v>151</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>6462</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-8</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="9">
+        <v>149</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>8437</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-7</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3071</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="17">
+        <v>148</v>
+      </c>
+      <c r="M31" s="15">
+        <v>6190</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3468,7 +4801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4749,7 +6082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5982,7 +7315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -7231,7 +8564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -8492,7 +9825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9790,7 +11123,1246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="9">
+        <v>434</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-320</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>11239</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-5853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="9">
+        <v>400</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-164</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3210</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>4167</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>390</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-158</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1248</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>288</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-135</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1196</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9">
+        <v>155</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-107</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1174</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="9">
+        <v>704</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3390</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-61</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9">
+        <v>661</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8406</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="9">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-54</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="9">
+        <v>546</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6180</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>113</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="9">
+        <v>373</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3324</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
+        <v>355</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="9">
+        <v>312</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>5392</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="9">
+        <v>92</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1787</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="9">
+        <v>294</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>8924</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>8155</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="9">
+        <v>293</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3141</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3526</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="9">
+        <v>276</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="9">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6609</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="9">
+        <v>251</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3227</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="9">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6125</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="9">
+        <v>241</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3666</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3508</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="9">
+        <v>234</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>5481</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>6488</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="9">
+        <v>192</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="9">
+        <v>186</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5478</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3236</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="9">
+        <v>179</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5328</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>6238</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="9">
+        <v>174</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>9951</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="9">
+        <v>173</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>4806</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="9">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6148</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="9">
+        <v>162</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3428</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9">
+        <v>160</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3594</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3587</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="9">
+        <v>153</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3489</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="9">
+        <v>147</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>5490</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="9">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6404</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="9">
+        <v>143</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>3526</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6435</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="9">
+        <v>141</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8096</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>5315</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="9">
+        <v>139</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>4947</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17">
+        <v>4</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="I31" s="15">
+        <v>8358</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="17">
+        <v>139</v>
+      </c>
+      <c r="M31" s="15">
+        <v>6245</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -11039,17 +13611,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12348,11 +14920,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -13635,7 +16207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14910,7 +17482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16209,7 +18781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17508,7 +20080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18805,1273 +21377,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>3092</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9">
-        <v>292</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-853</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="9">
-        <v>849</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6274</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>1795</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="9">
-        <v>230</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>6220</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-323</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="9">
-        <v>640</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9">
-        <v>200</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>6147</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-238</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="9">
-        <v>457</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9">
-        <v>129</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>6156</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-221</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>6187</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="9">
-        <v>455</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>5530</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="9">
-        <v>84</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6187</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-150</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>8183</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="9">
-        <v>438</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>3081</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="9">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-143</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="9">
-        <v>432</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6274</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9">
-        <v>63</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>3141</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-108</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>6121</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="9">
-        <v>426</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>8936</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>6279</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="9">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>5347</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-105</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="9">
-        <v>421</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>3483</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>8383</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="9">
-        <v>52</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>8069</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="9">
-        <v>377</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-80</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>6279</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="9">
-        <v>346</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>3105</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9">
-        <v>46</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>8938</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-79</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>5009</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="9">
-        <v>329</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>4174</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>8916</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="9">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>6188</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>4903</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="9">
-        <v>322</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>3541</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="9">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>8433</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-54</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>3455</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="9">
-        <v>303</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>6129</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>4401</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="9">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3623</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-52</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>1815</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="9">
-        <v>290</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>5351</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>6223</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="9">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>3265</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="9">
-        <v>275</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3078</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>6426</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="9">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>6245</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-48</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="9">
-        <v>268</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>3374</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9">
-        <v>21</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>4736</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-35</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9">
-        <v>250</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3675</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>4174</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9">
-        <v>19</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>5306</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-33</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>8436</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="9">
-        <v>234</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>3092</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>3324</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="9">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>4417</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>6426</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="9">
-        <v>233</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>3498</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>6510</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="9">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>8406</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-28</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>6173</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="9">
-        <v>221</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>3293</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="9">
-        <v>15</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>4947</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>6118</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" s="9">
-        <v>214</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>3630</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>5289</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="9">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-19</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6167</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K23" s="9">
-        <v>211</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>3526</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="9">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>8450</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-14</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>5328</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K24" s="9">
-        <v>202</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>6446</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="9">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>8446</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-12</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>3299</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="9">
-        <v>198</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>8050</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>6548</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>3587</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>1565</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="9">
-        <v>170</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>2641</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>5274</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3323</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K27" s="9">
-        <v>170</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>6104</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>6470</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>2233</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="9">
-        <v>166</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>8027</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>8050</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3227</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K29" s="9">
-        <v>151</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>6462</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-8</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>6175</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K30" s="9">
-        <v>149</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>5014</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>8437</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-7</v>
-      </c>
-      <c r="I31" s="15">
-        <v>3071</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="17">
-        <v>148</v>
-      </c>
-      <c r="M31" s="15">
-        <v>6190</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-91</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -9,117 +9,124 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8964" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061116" sheetId="19" r:id="rId2"/>
-    <sheet name="1061115" sheetId="18" r:id="rId3"/>
-    <sheet name="1061114" sheetId="17" r:id="rId4"/>
-    <sheet name="1061113" sheetId="16" r:id="rId5"/>
-    <sheet name="1061110" sheetId="15" r:id="rId6"/>
-    <sheet name="1061109" sheetId="14" r:id="rId7"/>
-    <sheet name="1061108" sheetId="13" r:id="rId8"/>
-    <sheet name="1060307" sheetId="12" r:id="rId9"/>
-    <sheet name="1060306" sheetId="11" r:id="rId10"/>
-    <sheet name="1060303" sheetId="9" r:id="rId11"/>
-    <sheet name="1060302" sheetId="8" r:id="rId12"/>
-    <sheet name="1060301" sheetId="6" r:id="rId13"/>
-    <sheet name="1060224" sheetId="1" r:id="rId14"/>
-    <sheet name="1060223" sheetId="5" r:id="rId15"/>
-    <sheet name="1060222" sheetId="7" r:id="rId16"/>
+    <sheet name="1061117" sheetId="20" r:id="rId2"/>
+    <sheet name="1061116" sheetId="19" r:id="rId3"/>
+    <sheet name="1061115" sheetId="18" r:id="rId4"/>
+    <sheet name="1061114" sheetId="17" r:id="rId5"/>
+    <sheet name="1061113" sheetId="16" r:id="rId6"/>
+    <sheet name="1061110" sheetId="15" r:id="rId7"/>
+    <sheet name="1061109" sheetId="14" r:id="rId8"/>
+    <sheet name="1061108" sheetId="13" r:id="rId9"/>
+    <sheet name="1060307" sheetId="12" r:id="rId10"/>
+    <sheet name="1060306" sheetId="11" r:id="rId11"/>
+    <sheet name="1060303" sheetId="9" r:id="rId12"/>
+    <sheet name="1060302" sheetId="8" r:id="rId13"/>
+    <sheet name="1060301" sheetId="6" r:id="rId14"/>
+    <sheet name="1060224" sheetId="1" r:id="rId15"/>
+    <sheet name="1060223" sheetId="5" r:id="rId16"/>
+    <sheet name="1060222" sheetId="7" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="15">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061116'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061116'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061116'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061115'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061117'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061117'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061117'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061117'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -171,152 +178,164 @@
   <connection id="13" name="連線111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="14" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="14" name="連線1111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="61" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="62" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="63" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="64" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="286">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,6 +1191,15 @@
   </si>
   <si>
     <t>磐儀</t>
+  </si>
+  <si>
+    <t>台興</t>
+  </si>
+  <si>
+    <t>耕興</t>
+  </si>
+  <si>
+    <t>崇友</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1539,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1736,243 +1778,259 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2286,6 +2344,1305 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6147</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1512</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8183</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1246</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9">
+        <v>811</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-547</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1062</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>8358</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9">
+        <v>750</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>1815</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-500</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9">
+        <v>982</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9">
+        <v>445</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8069</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-400</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="9">
+        <v>766</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9">
+        <v>335</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3141</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-343</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5371</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="9">
+        <v>744</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3217</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9">
+        <v>300</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>5820</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-338</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5009</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="9">
+        <v>694</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9">
+        <v>274</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6156</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-179</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>4105</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="9">
+        <v>606</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3068</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="9">
+        <v>184</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-120</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6188</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="9">
+        <v>480</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="9">
+        <v>399</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1795</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="9">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>8042</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-97</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3313</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="9">
+        <v>371</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>8433</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-83</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="9">
+        <v>357</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>5347</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-75</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6182</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="9">
+        <v>338</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9">
+        <v>80</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3088</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-62</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6173</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="9">
+        <v>303</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>3092</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>5306</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-55</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6279</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="9">
+        <v>270</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>5475</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4721</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="9">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-54</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="9">
+        <v>257</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6554</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="9">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>8299</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="9">
+        <v>254</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>4979</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="9">
+        <v>232</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6223</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="9">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>4549</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>8916</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="9">
+        <v>189</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5478</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3260</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>4736</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-35</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="9">
+        <v>179</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>3265</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>4401</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="9">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>4944</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="9">
+        <v>170</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>5274</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9">
+        <v>28</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>8155</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>1584</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="9">
+        <v>160</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>6167</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>5530</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-29</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>5443</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="9">
+        <v>143</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>8064</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="9">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4128</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="9">
+        <v>142</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>5289</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6446</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="9">
+        <v>139</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>4123</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3552</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="9">
+        <v>16</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>3483</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="9">
+        <v>129</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="9">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3581</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3455</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="9">
+        <v>125</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>4534</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-15</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4743</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="9">
+        <v>114</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>4716</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>6143</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="9">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-14</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6022</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="9">
+        <v>114</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6245</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>8462</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>4120</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="9">
+        <v>107</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>8942</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>5903</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="17">
+        <v>9</v>
+      </c>
+      <c r="E31" s="15">
+        <v>6462</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-11</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6170</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" s="17">
+        <v>102</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3092</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +4907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4801,7 +6158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6082,7 +7439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7315,7 +8672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -8564,7 +9921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -9825,7 +11182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11123,6 +12480,1293 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9">
+        <v>772</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-523</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2786</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>4105</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>660</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-269</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2763</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9">
+        <v>576</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-217</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2074</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="9">
+        <v>444</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1549</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>4167</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="9">
+        <v>409</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>5478</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-75</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1476</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3707</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="9">
+        <v>323</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6182</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="9">
+        <v>926</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3526</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="9">
+        <v>291</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>5289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>8183</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="9">
+        <v>761</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>6435</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="9">
+        <v>198</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="9">
+        <v>727</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3508</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="9">
+        <v>150</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="9">
+        <v>707</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6187</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9">
+        <v>136</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="9">
+        <v>689</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-37</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="9">
+        <v>592</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-32</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="9">
+        <v>538</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4971</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="9">
+        <v>75</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>1787</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3438</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="9">
+        <v>514</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6609</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8406</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="9">
+        <v>503</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="9">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="9">
+        <v>497</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3428</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6238</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9">
+        <v>60</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>4506</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="9">
+        <v>373</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>6125</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>8091</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="9">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3236</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="9">
+        <v>372</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>8155</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="9">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>6220</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>3294</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="9">
+        <v>357</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="9">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8462</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4966</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="9">
+        <v>323</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6238</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3426</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="9">
+        <v>316</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>6488</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3202</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="9">
+        <v>240</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="9">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="9">
+        <v>240</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-8</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>1565</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="9">
+        <v>220</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="9">
+        <v>217</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>6208</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>3354</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K26" s="9">
+        <v>207</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>4147</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>3141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6146</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-5</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="9">
+        <v>193</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5328</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3093</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3489</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="9">
+        <v>193</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3152</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5904</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>4721</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="9">
+        <v>184</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>5530</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>2640</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="9">
+        <v>167</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>5274</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3666</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="17">
+        <v>149</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8924</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-141</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
@@ -12348,17 +14992,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13621,7 +16265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14920,11 +17564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -16207,7 +18851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17482,7 +20126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18781,7 +21425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20078,1303 +22722,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>8183</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1100</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>6147</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1512</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8183</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1246</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="9">
-        <v>811</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-547</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1062</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>8358</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="9">
-        <v>750</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>1815</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-500</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>1815</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9">
-        <v>982</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>3374</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-1004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>3374</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="9">
-        <v>445</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>8069</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-400</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="9">
-        <v>766</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>3081</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>6138</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="9">
-        <v>335</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>3141</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-343</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>5371</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" s="9">
-        <v>744</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>8086</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-650</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>3217</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="9">
-        <v>300</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>5820</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-338</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>5009</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="9">
-        <v>694</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="9">
-        <v>274</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6156</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-179</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>4105</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="9">
-        <v>606</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>3630</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3068</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="9">
-        <v>184</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3105</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-120</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6188</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="9">
-        <v>480</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="9">
-        <v>150</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>6187</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-100</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="9">
-        <v>399</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1795</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="9">
-        <v>110</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>8042</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-97</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3313</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="9">
-        <v>371</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>8027</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="9">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>8433</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-83</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>5483</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="9">
-        <v>357</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>6274</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3152</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="9">
-        <v>90</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>5347</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-75</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>6182</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K13" s="9">
-        <v>338</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>8042</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="9">
-        <v>80</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>3088</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-62</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>6173</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="9">
-        <v>303</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>6244</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>3092</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9">
-        <v>68</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>5306</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-55</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>6279</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="9">
-        <v>270</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>5475</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4721</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="9">
-        <v>57</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>4147</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-54</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="9">
-        <v>257</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3078</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>6554</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="9">
-        <v>50</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>8299</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-52</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>8436</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="9">
-        <v>254</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>4702</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>6274</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>4528</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>4979</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="9">
-        <v>232</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>6223</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="9">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>4549</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-40</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>8916</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" s="9">
-        <v>189</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>5478</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>3260</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="9">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>4736</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-35</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3227</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="9">
-        <v>179</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>3265</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>4401</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="9">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>4947</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>4944</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K21" s="9">
-        <v>170</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>5340</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>5274</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="9">
-        <v>28</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>8155</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>1584</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" s="9">
-        <v>160</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>6167</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>6188</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="9">
-        <v>25</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>5530</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-29</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>5443</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="9">
-        <v>143</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>8064</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>5289</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="9">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>9951</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>4128</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="9">
-        <v>142</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>5289</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="9">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>6446</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="9">
-        <v>139</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>4123</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>3552</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="9">
-        <v>16</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-15</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>3483</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="9">
-        <v>129</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>6411</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="9">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3581</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-15</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3455</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="9">
-        <v>125</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>4534</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>1565</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="9">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>4107</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-15</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>4743</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" s="9">
-        <v>114</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>4716</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>6143</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="9">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-14</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6022</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29" s="9">
-        <v>114</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>6245</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>4803</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="9">
-        <v>9</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>8462</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-13</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>4120</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K30" s="9">
-        <v>107</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>8942</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
-        <v>5903</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="17">
-        <v>9</v>
-      </c>
-      <c r="E31" s="15">
-        <v>6462</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-11</v>
-      </c>
-      <c r="I31" s="15">
-        <v>6170</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="17">
-        <v>102</v>
-      </c>
-      <c r="M31" s="15">
-        <v>3092</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,120 +13,127 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061117" sheetId="20" r:id="rId2"/>
-    <sheet name="1061116" sheetId="19" r:id="rId3"/>
-    <sheet name="1061115" sheetId="18" r:id="rId4"/>
-    <sheet name="1061114" sheetId="17" r:id="rId5"/>
-    <sheet name="1061113" sheetId="16" r:id="rId6"/>
-    <sheet name="1061110" sheetId="15" r:id="rId7"/>
-    <sheet name="1061109" sheetId="14" r:id="rId8"/>
-    <sheet name="1061108" sheetId="13" r:id="rId9"/>
-    <sheet name="1060307" sheetId="12" r:id="rId10"/>
-    <sheet name="1060306" sheetId="11" r:id="rId11"/>
-    <sheet name="1060303" sheetId="9" r:id="rId12"/>
-    <sheet name="1060302" sheetId="8" r:id="rId13"/>
-    <sheet name="1060301" sheetId="6" r:id="rId14"/>
-    <sheet name="1060224" sheetId="1" r:id="rId15"/>
-    <sheet name="1060223" sheetId="5" r:id="rId16"/>
-    <sheet name="1060222" sheetId="7" r:id="rId17"/>
+    <sheet name="1061120" sheetId="21" r:id="rId2"/>
+    <sheet name="1061117" sheetId="20" r:id="rId3"/>
+    <sheet name="1061116" sheetId="19" r:id="rId4"/>
+    <sheet name="1061115" sheetId="18" r:id="rId5"/>
+    <sheet name="1061114" sheetId="17" r:id="rId6"/>
+    <sheet name="1061113" sheetId="16" r:id="rId7"/>
+    <sheet name="1061110" sheetId="15" r:id="rId8"/>
+    <sheet name="1061109" sheetId="14" r:id="rId9"/>
+    <sheet name="1061108" sheetId="13" r:id="rId10"/>
+    <sheet name="1060307" sheetId="12" r:id="rId11"/>
+    <sheet name="1060306" sheetId="11" r:id="rId12"/>
+    <sheet name="1060303" sheetId="9" r:id="rId13"/>
+    <sheet name="1060302" sheetId="8" r:id="rId14"/>
+    <sheet name="1060301" sheetId="6" r:id="rId15"/>
+    <sheet name="1060224" sheetId="1" r:id="rId16"/>
+    <sheet name="1060223" sheetId="5" r:id="rId17"/>
+    <sheet name="1060222" sheetId="7" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="16">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061116'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061117'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061116'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061117'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061116'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061117'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061115'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061116'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061117'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061117'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061120'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061117'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061120'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061117'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061120'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061117'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061120'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -181,161 +188,173 @@
   <connection id="14" name="連線1111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="15" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="15" name="連線11111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="16" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="65" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="66" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="67" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="68" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="293">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,6 +1219,27 @@
   </si>
   <si>
     <t>崇友</t>
+  </si>
+  <si>
+    <t>新麥</t>
+  </si>
+  <si>
+    <t>數字</t>
+  </si>
+  <si>
+    <t>漢來美食</t>
+  </si>
+  <si>
+    <t>健亞</t>
+  </si>
+  <si>
+    <t>科懋</t>
+  </si>
+  <si>
+    <t>健喬</t>
+  </si>
+  <si>
+    <t>泰詠</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1579,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1778,259 +1832,275 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2344,6 +2414,1305 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4178</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-3970</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2597</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3972</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-1026</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1952</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5483</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2193</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-990</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1489</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>8121</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6180</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="9">
+        <v>460</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-328</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1300</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="9">
+        <v>261</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-319</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1235</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9">
+        <v>224</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6173</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-218</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6107</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1042</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>8171</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="9">
+        <v>190</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-212</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="9">
+        <v>830</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="9">
+        <v>180</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="9">
+        <v>790</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6220</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="9">
+        <v>179</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-177</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="9">
+        <v>744</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="9">
+        <v>160</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-145</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>4991</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="9">
+        <v>667</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6104</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9">
+        <v>130</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3689</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-122</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9">
+        <v>461</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="9">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-87</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="9">
+        <v>403</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="9">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-86</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6124</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="9">
+        <v>376</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6238</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="9">
+        <v>76</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5508</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="9">
+        <v>350</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9">
+        <v>65</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="9">
+        <v>340</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>4528</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="9">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="9">
+        <v>335</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5230</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3625</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K18" s="9">
+        <v>324</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5439</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3587</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-52</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>1815</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="9">
+        <v>312</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>8383</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8091</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-51</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4714</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="9">
+        <v>299</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="9">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3293</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>4907</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="9">
+        <v>258</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6275</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="9">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-39</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>5340</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="9">
+        <v>251</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-37</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" s="9">
+        <v>251</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>3491</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="9">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>3529</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="9">
+        <v>234</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>1569</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>8048</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5356</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="9">
+        <v>231</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-28</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="9">
+        <v>231</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3323</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>9951</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="9">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3227</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-27</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="9">
+        <v>230</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3088</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" s="9">
+        <v>218</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>8924</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="9">
+        <v>208</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8444</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8043</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" s="9">
+        <v>190</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>8299</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>8433</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-20</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3227</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" s="17">
+        <v>187</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3707</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -3638,7 +5007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -4907,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6158,7 +7527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7439,7 +8808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8672,7 +10041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -9921,7 +11290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -11182,7 +12551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -12481,6 +13850,1269 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9">
+        <v>675</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-270</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>5067</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>3105</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-3712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="9">
+        <v>383</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-250</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2506</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6138</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9">
+        <v>365</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-221</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2329</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>3438</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9">
+        <v>310</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-91</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1009</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>8183</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>234</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-89</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="9">
+        <v>991</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3264</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>223</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>3317</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="9">
+        <v>869</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9">
+        <v>203</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-76</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>6182</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="9">
+        <v>702</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9">
+        <v>192</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>6488</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-74</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="9">
+        <v>652</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="9">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-72</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>1586</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K10" s="9">
+        <v>508</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4129</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="9">
+        <v>63</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-69</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>4167</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="9">
+        <v>468</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>6411</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>4107</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>4130</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K12" s="9">
+        <v>378</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3202</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>3428</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-58</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>4944</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="9">
+        <v>370</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6188</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3563</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-57</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>8171</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="9">
+        <v>361</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>4966</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="9">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>5609</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4162</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="9">
+        <v>298</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3236</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8406</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="9">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6244</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="9">
+        <v>280</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>5481</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-43</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="9">
+        <v>277</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>4105</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>5490</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="9">
+        <v>266</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>6187</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-26</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>4128</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="9">
+        <v>260</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>4147</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3546</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="9">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4804</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="9">
+        <v>232</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>3441</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>3141</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" s="9">
+        <v>219</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6175</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>8436</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3152</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="9">
+        <v>218</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>5274</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6496</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="9">
+        <v>215</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>5490</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>1580</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3546</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="9">
+        <v>207</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3428</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>6146</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="9">
+        <v>189</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>4939</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-11</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>8936</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="9">
+        <v>189</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>8042</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>6121</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="9">
+        <v>175</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>1815</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>5287</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-8</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="9">
+        <v>174</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>5443</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-7</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>4114</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K29" s="9">
+        <v>171</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6266</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>1268</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="9">
+        <v>167</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3508</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>5903</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3078</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="17">
+        <v>164</v>
+      </c>
+      <c r="M31" s="15">
+        <v>8406</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -13753,17 +16385,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15002,7 +17634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -16265,7 +18897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17564,7 +20196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18851,7 +21483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20126,7 +22758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21423,1303 +24055,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>6182</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="9">
-        <v>4178</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>5483</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-3970</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8069</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2597</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3972</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>6187</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-1026</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3374</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1952</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>5483</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3374</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2193</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-990</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1489</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>8121</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>6180</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="9">
-        <v>460</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>5425</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-328</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>6147</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1300</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>5820</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3390</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="9">
-        <v>261</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6568</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-319</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1235</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>4939</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9">
-        <v>224</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>6173</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-218</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>6107</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1042</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>8171</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>8183</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="9">
-        <v>190</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>6238</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-212</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="9">
-        <v>830</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>8406</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>6123</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="9">
-        <v>180</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>4991</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-200</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6175</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="9">
-        <v>790</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6138</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6220</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="9">
-        <v>179</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>3552</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-177</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="9">
-        <v>744</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>3260</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="9">
-        <v>160</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>4147</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-145</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>4991</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="9">
-        <v>667</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>6104</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="9">
-        <v>130</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>3689</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-122</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>6274</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="9">
-        <v>461</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>3630</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>3563</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="9">
-        <v>103</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-87</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>6462</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="9">
-        <v>403</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-86</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>6124</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="9">
-        <v>376</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>6238</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="9">
-        <v>76</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>4401</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-80</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>5508</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K15" s="9">
-        <v>350</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>5274</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-65</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6298</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="9">
-        <v>340</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3081</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>4528</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="9">
-        <v>58</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>5351</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="9">
-        <v>335</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>4702</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>1565</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9">
-        <v>52</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>5230</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3625</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="K18" s="9">
-        <v>324</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>5439</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="9">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>3587</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-52</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>1815</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="9">
-        <v>312</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>5014</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>8383</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="9">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>8091</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-51</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>4714</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="9">
-        <v>299</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>5371</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>8938</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="9">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>3293</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>4907</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" s="9">
-        <v>258</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>6275</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>8279</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C22" s="9">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-39</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>5340</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="9">
-        <v>251</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>5512</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>6188</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="9">
-        <v>30</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>8916</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-37</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6180</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K23" s="9">
-        <v>251</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>3491</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>8436</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="9">
-        <v>27</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>3529</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3362</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="9">
-        <v>234</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>1569</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>5263</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="9">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>8048</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>5356</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" s="9">
-        <v>231</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3294</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>4126</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="9">
-        <v>20</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>4162</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-28</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6244</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K26" s="9">
-        <v>231</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3323</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>9951</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="9">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3227</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-27</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>6290</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K27" s="9">
-        <v>230</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>3088</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>8437</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>2726</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>4167</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K28" s="9">
-        <v>218</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>8086</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>3152</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>3556</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>8924</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K29" s="9">
-        <v>208</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>8299</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>8444</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="9">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>3105</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-23</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>8043</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K30" s="9">
-        <v>190</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>3324</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
-        <v>8299</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>8433</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-20</v>
-      </c>
-      <c r="I31" s="15">
-        <v>3227</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="17">
-        <v>187</v>
-      </c>
-      <c r="M31" s="15">
-        <v>3707</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-138</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -8,134 +8,141 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061121" sheetId="22" r:id="rId2"/>
-    <sheet name="1061120" sheetId="21" r:id="rId3"/>
-    <sheet name="1061117" sheetId="20" r:id="rId4"/>
-    <sheet name="1061116" sheetId="19" r:id="rId5"/>
-    <sheet name="1061115" sheetId="18" r:id="rId6"/>
-    <sheet name="1061114" sheetId="17" r:id="rId7"/>
-    <sheet name="1061113" sheetId="16" r:id="rId8"/>
-    <sheet name="1061110" sheetId="15" r:id="rId9"/>
-    <sheet name="1061109" sheetId="14" r:id="rId10"/>
-    <sheet name="1061108" sheetId="13" r:id="rId11"/>
-    <sheet name="1060307" sheetId="12" r:id="rId12"/>
-    <sheet name="1060306" sheetId="11" r:id="rId13"/>
-    <sheet name="1060303" sheetId="9" r:id="rId14"/>
-    <sheet name="1060302" sheetId="8" r:id="rId15"/>
-    <sheet name="1060301" sheetId="6" r:id="rId16"/>
-    <sheet name="1060224" sheetId="1" r:id="rId17"/>
-    <sheet name="1060223" sheetId="5" r:id="rId18"/>
-    <sheet name="1060222" sheetId="7" r:id="rId19"/>
+    <sheet name="1061122" sheetId="23" r:id="rId2"/>
+    <sheet name="1061121" sheetId="22" r:id="rId3"/>
+    <sheet name="1061120" sheetId="21" r:id="rId4"/>
+    <sheet name="1061117" sheetId="20" r:id="rId5"/>
+    <sheet name="1061116" sheetId="19" r:id="rId6"/>
+    <sheet name="1061115" sheetId="18" r:id="rId7"/>
+    <sheet name="1061114" sheetId="17" r:id="rId8"/>
+    <sheet name="1061113" sheetId="16" r:id="rId9"/>
+    <sheet name="1061110" sheetId="15" r:id="rId10"/>
+    <sheet name="1061109" sheetId="14" r:id="rId11"/>
+    <sheet name="1061108" sheetId="13" r:id="rId12"/>
+    <sheet name="1060307" sheetId="12" r:id="rId13"/>
+    <sheet name="1060306" sheetId="11" r:id="rId14"/>
+    <sheet name="1060303" sheetId="9" r:id="rId15"/>
+    <sheet name="1060302" sheetId="8" r:id="rId16"/>
+    <sheet name="1060301" sheetId="6" r:id="rId17"/>
+    <sheet name="1060224" sheetId="1" r:id="rId18"/>
+    <sheet name="1060223" sheetId="5" r:id="rId19"/>
+    <sheet name="1060222" sheetId="7" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="18">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="17">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="18">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061116'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061117'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061120'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061121'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="18">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="18">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061116'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061117'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061120'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061121'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="18">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061116'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061117'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061120'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061121'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="18">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061115'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061116'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061117'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061120'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061121'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="19">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="19">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061117'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061120'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061121'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061122'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="19">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="19">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061117'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061120'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061121'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061122'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="19">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061117'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061120'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061121'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061122'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="19">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061117'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061120'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061121'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061122'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -196,179 +203,191 @@
   <connection id="16" name="連線111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="17" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="連線1111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="18" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="19" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="20" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="69" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="69" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="70" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="70" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="71" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="71" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="72" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="72" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="73" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="74" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="75" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="76" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="313">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,6 +1303,36 @@
   </si>
   <si>
     <t>天良</t>
+  </si>
+  <si>
+    <t>00687B</t>
+  </si>
+  <si>
+    <t>國泰20年美債</t>
+  </si>
+  <si>
+    <t>健信</t>
+  </si>
+  <si>
+    <t>碩禾元大72購01</t>
+  </si>
+  <si>
+    <t>00694B</t>
+  </si>
+  <si>
+    <t>富邦美債1-3</t>
+  </si>
+  <si>
+    <t>00696B</t>
+  </si>
+  <si>
+    <t>富邦美債20年</t>
+  </si>
+  <si>
+    <t>00679B</t>
+  </si>
+  <si>
+    <t>元大美債20年</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1672,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1890,291 +1953,307 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2432,7 +2511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2484,6 +2563,1281 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
+        <v>889</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-1211</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2576</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="9">
+        <v>395</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3141</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-646</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>6182</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1522</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>385</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-599</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1199</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6175</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9">
+        <v>256</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-418</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1161</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>8091</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="9">
+        <v>119</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>3324</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-386</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1022</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>3526</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-370</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="9">
+        <v>866</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="9">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-340</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="9">
+        <v>767</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>5340</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>5478</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-295</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" s="9">
+        <v>699</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3664</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4129</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-263</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="9">
+        <v>593</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-200</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6290</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9">
+        <v>563</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>5465</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="9">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6187</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-153</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="9">
+        <v>522</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3489</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-125</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="9">
+        <v>508</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4528</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>4966</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-120</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="9">
+        <v>455</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>4729</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>4107</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-95</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>5014</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="9">
+        <v>453</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>5289</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-89</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="9">
+        <v>449</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>4126</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="9">
+        <v>27</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-69</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3428</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="9">
+        <v>447</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>3546</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="9">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4947</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>8358</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9">
+        <v>413</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3580</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C19" s="9">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>6190</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="9">
+        <v>338</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>3540</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8">
+        <v>8450</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="9">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3071</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="9">
+        <v>336</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>8406</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8">
+        <v>6180</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>8044</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-35</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>6104</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="9">
+        <v>325</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>3088</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="9">
+        <v>323</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="9">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="9">
+        <v>322</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6223</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="9">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>8383</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>4991</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" s="9">
+        <v>302</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8049</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5328</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" s="9">
+        <v>299</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3438</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="9">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-21</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>1597</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="9">
+        <v>298</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3402</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8">
+        <v>6510</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>5425</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="9">
+        <v>297</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3081</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="9">
+        <v>292</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>5512</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>3508</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="9">
+        <v>279</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3630</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-10</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6509</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" s="9">
+        <v>270</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6167</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>8069</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-10</v>
+      </c>
+      <c r="I31" s="15">
+        <v>4966</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="17">
+        <v>265</v>
+      </c>
+      <c r="M31" s="15">
+        <v>4728</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -3772,17 +5126,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5071,17 +6425,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6370,17 +7724,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7639,17 +8993,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -8890,17 +10244,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10171,17 +11525,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11404,17 +12758,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -12653,17 +14007,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -13914,17 +15268,1246 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="22.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1">
+      <c r="A2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1955</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>5425</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-611</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2649</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-6890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1">
+      <c r="A3" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9">
+        <v>979</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>6173</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-359</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2464</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1">
+      <c r="A4" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="9">
+        <v>763</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-272</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2381</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1">
+      <c r="A5" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="9">
+        <v>682</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-248</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2048</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5483</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1">
+      <c r="A6" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>564</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>1597</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-207</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1805</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1">
+      <c r="A7" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9">
+        <v>430</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-199</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>1785</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1106</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3317</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1">
+      <c r="A8" s="8">
+        <v>6488</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="9">
+        <v>241</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-176</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="9">
+        <v>762</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3078</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1">
+      <c r="A9" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="9">
+        <v>191</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>1569</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-100</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="9">
+        <v>649</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1">
+      <c r="A10" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9">
+        <v>161</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-96</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>5351</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="9">
+        <v>543</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>8034</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1">
+      <c r="A11" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="9">
+        <v>143</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-95</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="9">
+        <v>489</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1">
+      <c r="A12" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="9">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-87</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="9">
+        <v>406</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1">
+      <c r="A13" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>82</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1565</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-84</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3236</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="9">
+        <v>323</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1">
+      <c r="A14" s="8">
+        <v>4129</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="9">
+        <v>62</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-80</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="9">
+        <v>249</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>8121</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1">
+      <c r="A15" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="9">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-78</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4966</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="9">
+        <v>233</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>4991</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1">
+      <c r="A16" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-64</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="9">
+        <v>227</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>4502</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1">
+      <c r="A17" s="8">
+        <v>8444</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>1586</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="9">
+        <v>216</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>6279</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1">
+      <c r="A18" s="8">
+        <v>4549</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>8255</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-50</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>6568</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="9">
+        <v>216</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>729631</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1">
+      <c r="A19" s="8">
+        <v>3152</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>9951</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-49</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>4803</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="9">
+        <v>207</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6150</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>8086</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>4947</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9">
+        <v>194</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>4944</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>8916</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-33</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>8183</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="9">
+        <v>191</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>3217</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="9">
+        <v>184</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3324</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="9">
+        <v>176</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>5490</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>5274</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-21</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3664</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="9">
+        <v>154</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>5289</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="9">
+        <v>137</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>5014</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>6146</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>3551</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K26" s="9">
+        <v>127</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>6026</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>6246</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K27" s="9">
+        <v>125</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>3426</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-16</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6121</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="9">
+        <v>124</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>4702</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>4736</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="9">
+        <v>110</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>8437</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-11</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>6143</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="9">
+        <v>107</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>3455</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="19.2" thickBot="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>6147</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-10</v>
+      </c>
+      <c r="I31" s="15">
+        <v>5349</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="17">
+        <v>105</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1815</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-178</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15208,21 +17791,21 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -16501,17 +19084,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -17764,17 +20347,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -19051,17 +21634,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -20290,17 +22873,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21553,17 +24136,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -22852,17 +25435,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -24139,1285 +26722,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001"/>
-  <cols>
-    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1">
-      <c r="A2" s="8">
-        <v>3264</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="9">
-        <v>889</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>6274</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-1211</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>6488</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2576</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6462</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1">
-      <c r="A3" s="8">
-        <v>3390</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="9">
-        <v>395</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3141</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-646</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>6182</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1522</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>8086</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1">
-      <c r="A4" s="8">
-        <v>6488</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9">
-        <v>385</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>5483</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-599</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>3374</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1199</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6175</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1">
-      <c r="A5" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="9">
-        <v>256</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>4991</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-418</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>6274</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1161</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>8299</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1">
-      <c r="A6" s="8">
-        <v>8091</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="9">
-        <v>119</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>3324</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-386</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>5820</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1022</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>3526</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-393</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1">
-      <c r="A7" s="8">
-        <v>6182</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="9">
-        <v>118</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>6188</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-370</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>6180</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="9">
-        <v>866</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1">
-      <c r="A8" s="8">
-        <v>6462</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="9">
-        <v>117</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>4162</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-340</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>5351</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="9">
-        <v>767</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>5340</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1">
-      <c r="A9" s="8">
-        <v>5478</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="9">
-        <v>75</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-295</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>3707</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="9">
-        <v>699</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>3664</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1">
-      <c r="A10" s="8">
-        <v>1565</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9">
-        <v>54</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>4129</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-263</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>6208</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="9">
-        <v>593</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1">
-      <c r="A11" s="8">
-        <v>3293</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9">
-        <v>53</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>3552</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-200</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>6290</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="9">
-        <v>563</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>5347</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1">
-      <c r="A12" s="8">
-        <v>5465</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="9">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>6187</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-153</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="9">
-        <v>522</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>3489</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1">
-      <c r="A13" s="8">
-        <v>6123</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="9">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>5425</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-125</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>8436</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="9">
-        <v>508</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>4528</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1">
-      <c r="A14" s="8">
-        <v>4966</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="9">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>8349</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-120</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>3227</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="9">
-        <v>455</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>4729</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1">
-      <c r="A15" s="8">
-        <v>4107</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>4528</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-95</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>5014</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="9">
-        <v>453</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>6279</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1">
-      <c r="A16" s="8">
-        <v>5289</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="9">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>4401</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-89</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6147</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="9">
-        <v>449</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>6220</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1">
-      <c r="A17" s="8">
-        <v>4126</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="9">
-        <v>27</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>6568</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-69</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>3428</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K17" s="9">
-        <v>447</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>8044</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1">
-      <c r="A18" s="8">
-        <v>3546</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="9">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>4947</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>8358</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="9">
-        <v>413</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3580</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1">
-      <c r="A19" s="8">
-        <v>3691</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="9">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>6138</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-50</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>6190</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="9">
-        <v>338</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>3540</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1">
-      <c r="A20" s="8">
-        <v>8450</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="9">
-        <v>22</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-41</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3071</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K20" s="9">
-        <v>336</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>8406</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1">
-      <c r="A21" s="8">
-        <v>6180</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="9">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>8044</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-35</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>6104</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" s="9">
-        <v>325</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>3088</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
-      <c r="A22" s="8">
-        <v>3529</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>8916</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-33</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>6123</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="9">
-        <v>323</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>3324</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1">
-      <c r="A23" s="8">
-        <v>3563</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="9">
-        <v>18</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>2726</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>3323</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" s="9">
-        <v>322</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>6223</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1">
-      <c r="A24" s="8">
-        <v>8155</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="9">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>8383</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>4991</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" s="9">
-        <v>302</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>8049</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1">
-      <c r="A25" s="8">
-        <v>5263</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="9">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>3556</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>5328</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K25" s="9">
-        <v>299</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3438</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1">
-      <c r="A26" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="9">
-        <v>10</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>8436</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-21</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>1597</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K26" s="9">
-        <v>298</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3402</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1">
-      <c r="A27" s="8">
-        <v>6510</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3105</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>5425</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="9">
-        <v>297</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>5371</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>3081</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="9">
-        <v>292</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>5512</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>5903</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-16</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>3508</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="9">
-        <v>279</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>3630</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-10</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>6509</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K30" s="9">
-        <v>270</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>6167</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="19.2" thickBot="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15">
-        <v>8069</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-10</v>
-      </c>
-      <c r="I31" s="15">
-        <v>4966</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="17">
-        <v>265</v>
-      </c>
-      <c r="M31" s="15">
-        <v>4728</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,162 +13,169 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061127" sheetId="26" r:id="rId2"/>
-    <sheet name="1061124" sheetId="25" r:id="rId3"/>
-    <sheet name="1061123" sheetId="24" r:id="rId4"/>
-    <sheet name="1061122" sheetId="23" r:id="rId5"/>
-    <sheet name="1061121" sheetId="22" r:id="rId6"/>
-    <sheet name="1061120" sheetId="21" r:id="rId7"/>
-    <sheet name="1061117" sheetId="20" r:id="rId8"/>
-    <sheet name="1061116" sheetId="19" r:id="rId9"/>
-    <sheet name="1061115" sheetId="18" r:id="rId10"/>
-    <sheet name="1061114" sheetId="17" r:id="rId11"/>
-    <sheet name="1061113" sheetId="16" r:id="rId12"/>
-    <sheet name="1061110" sheetId="15" r:id="rId13"/>
-    <sheet name="1061109" sheetId="14" r:id="rId14"/>
-    <sheet name="1061108" sheetId="13" r:id="rId15"/>
-    <sheet name="1060307" sheetId="12" r:id="rId16"/>
-    <sheet name="1060306" sheetId="11" r:id="rId17"/>
-    <sheet name="1060303" sheetId="9" r:id="rId18"/>
-    <sheet name="1060302" sheetId="8" r:id="rId19"/>
-    <sheet name="1060301" sheetId="6" r:id="rId20"/>
-    <sheet name="1060224" sheetId="1" r:id="rId21"/>
-    <sheet name="1060223" sheetId="5" r:id="rId22"/>
-    <sheet name="1060222" sheetId="7" r:id="rId23"/>
+    <sheet name="1061128" sheetId="27" r:id="rId2"/>
+    <sheet name="1061127" sheetId="26" r:id="rId3"/>
+    <sheet name="1061124" sheetId="25" r:id="rId4"/>
+    <sheet name="1061123" sheetId="24" r:id="rId5"/>
+    <sheet name="1061122" sheetId="23" r:id="rId6"/>
+    <sheet name="1061121" sheetId="22" r:id="rId7"/>
+    <sheet name="1061120" sheetId="21" r:id="rId8"/>
+    <sheet name="1061117" sheetId="20" r:id="rId9"/>
+    <sheet name="1061116" sheetId="19" r:id="rId10"/>
+    <sheet name="1061115" sheetId="18" r:id="rId11"/>
+    <sheet name="1061114" sheetId="17" r:id="rId12"/>
+    <sheet name="1061113" sheetId="16" r:id="rId13"/>
+    <sheet name="1061110" sheetId="15" r:id="rId14"/>
+    <sheet name="1061109" sheetId="14" r:id="rId15"/>
+    <sheet name="1061108" sheetId="13" r:id="rId16"/>
+    <sheet name="1060307" sheetId="12" r:id="rId17"/>
+    <sheet name="1060306" sheetId="11" r:id="rId18"/>
+    <sheet name="1060303" sheetId="9" r:id="rId19"/>
+    <sheet name="1060302" sheetId="8" r:id="rId20"/>
+    <sheet name="1060301" sheetId="6" r:id="rId21"/>
+    <sheet name="1060224" sheetId="1" r:id="rId22"/>
+    <sheet name="1060223" sheetId="5" r:id="rId23"/>
+    <sheet name="1060222" sheetId="7" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="22">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="21">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="20">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="19">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="18">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="17">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061121'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061122'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061123'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061124'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061127'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="22">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="21">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="20">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="19">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="18">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061116'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061117'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061120'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061121'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061122'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061123'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061124'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061127'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="22">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="21">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="20">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="19">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="18">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061122'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061123'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061124'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061127'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="22">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="21">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="20">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="19">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="18">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061116'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061117'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061120'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061121'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061122'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061123'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061124'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061127'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="22">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="21">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="20">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="19">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="18">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061116'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061117'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061120'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061121'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061122'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061123'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061124'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061127'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="22">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="21">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="20">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="19">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="18">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061115'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061116'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061117'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061120'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061121'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061122'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061123'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061124'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061127'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="23">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="22">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="21">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="20">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="19">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061122'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061123'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061124'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061127'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061128'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="23">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="22">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="21">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="20">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="19">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061117'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061120'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061121'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061122'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061123'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061124'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061127'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061128'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="23">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="22">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="21">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="20">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="19">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061123'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061124'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061127'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061128'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="23">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="22">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="21">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="20">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="19">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061117'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061120'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061121'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061122'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061123'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061124'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061127'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061128'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="23">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="22">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="21">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="20">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="19">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061117'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061120'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061121'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061122'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061123'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061124'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061127'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061128'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="23">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="22">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="21">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="20">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="19">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061117'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061120'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061121'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061122'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061123'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061124'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061127'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061128'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -241,215 +248,227 @@
   <connection id="20" name="連線1111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="21" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="21" name="連線11111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線2121111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線231111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="69" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="69" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="70" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="70" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="71" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="71" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="72" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="72" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="73" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="73" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="74" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="74" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="75" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="75" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="76" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="76" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="77" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="77" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="78" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="78" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="79" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="79" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="80" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="80" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="81" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="81" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="82" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="82" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="83" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="83" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="84" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="84" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="85" name="連線4211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="85" name="連線4211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="86" name="連線42111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="86" name="連線42111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="87" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="87" name="連線421111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="88" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="88" name="連線4211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="89" name="連線42111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="90" name="連線421111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="91" name="連線5" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
+  </connection>
+  <connection id="92" name="連線51" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="338">
   <si>
     <t>投信買超</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1465,30 @@
   </si>
   <si>
     <t>瑞耘</t>
+  </si>
+  <si>
+    <t>紅馬-KY</t>
+  </si>
+  <si>
+    <t>智捷</t>
+  </si>
+  <si>
+    <t>倍微</t>
+  </si>
+  <si>
+    <t>大世科</t>
+  </si>
+  <si>
+    <t>亞泰</t>
+  </si>
+  <si>
+    <t>驊訊</t>
+  </si>
+  <si>
+    <t>亞獅康-KY</t>
+  </si>
+  <si>
+    <t>太欣</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1828,21 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2108,355 +2165,371 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="90" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="85" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="89" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="91" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable89.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="85" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable90.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable91.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="92" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_3" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_2" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U" connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable92.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TWT44U_4" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2770,6 +2843,1245 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="9">
+        <v>434</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3264</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-320</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="9">
+        <v>11239</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-5853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>8183</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="9">
+        <v>400</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-164</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="9">
+        <v>3210</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>4167</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9">
+        <v>390</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>8349</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-158</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>5347</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1248</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9">
+        <v>288</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-135</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1196</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3552</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9">
+        <v>155</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-107</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1174</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>8044</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9">
+        <v>140</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-67</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6488</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="9">
+        <v>704</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>3390</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="9">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>3289</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-61</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="9">
+        <v>661</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8406</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="9">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-54</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6462</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="9">
+        <v>546</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>6180</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>113</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6208</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="9">
+        <v>373</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6138</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="9">
+        <v>102</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3324</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9">
+        <v>355</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>5425</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>5425</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-42</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3323</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="9">
+        <v>312</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>5392</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8279</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="9">
+        <v>92</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>1787</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="9">
+        <v>294</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>8924</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>8155</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="9">
+        <v>293</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>3141</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="9">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-23</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>3526</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="9">
+        <v>276</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3081</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8155</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="9">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>6609</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K16" s="9">
+        <v>251</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3227</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3390</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="9">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3491</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>6125</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="9">
+        <v>241</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3666</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-9</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>3508</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="9">
+        <v>234</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>5481</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>6488</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-3</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="9">
+        <v>192</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="9">
+        <v>50</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>1264</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3362</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="9">
+        <v>186</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>5478</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>3552</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>3236</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="9">
+        <v>179</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5328</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>6238</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="9">
+        <v>174</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>8027</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>9951</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9">
+        <v>24</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="9">
+        <v>173</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>4806</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3691</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="9">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6148</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="9">
+        <v>162</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>3428</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>8916</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="9">
+        <v>17</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9">
+        <v>160</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3594</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>3587</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9">
+        <v>15</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>6298</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="9">
+        <v>153</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3489</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9">
+        <v>15</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="9">
+        <v>147</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>5490</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="9">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>6404</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="K28" s="9">
+        <v>143</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3294</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>3526</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="9">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6435</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="9">
+        <v>141</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>8096</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8437</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="9">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>5315</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="9">
+        <v>139</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>4947</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="17">
+        <v>4</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="I31" s="15">
+        <v>8358</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="17">
+        <v>139</v>
+      </c>
+      <c r="M31" s="15">
+        <v>6245</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -4028,7 +5340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -5327,7 +6639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -6614,7 +7926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -7889,7 +9201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -9188,7 +10500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10487,7 +11799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -11786,7 +13098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -13055,7 +14367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -14306,7 +15618,1302 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="22.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9">
+        <v>647</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-492</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3374</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2057</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-2355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6290</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9">
+        <v>284</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3071</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-240</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1736</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>8069</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>270</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>3264</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-240</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>8069</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1559</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="9">
+        <v>253</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>6188</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-198</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="9">
+        <v>968</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>3556</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>187</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>8183</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-156</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="9">
+        <v>783</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9">
+        <v>174</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>6274</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-136</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>5289</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="9">
+        <v>612</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1597</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="9">
+        <v>158</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>5609</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-117</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>8176</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K8" s="9">
+        <v>545</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>5457</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>5349</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="9">
+        <v>150</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>4966</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-113</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="9">
+        <v>490</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>3071</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8091</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="9">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>8383</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-105</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>6175</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="9">
+        <v>441</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>4974</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="9">
+        <v>114</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-90</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="9">
+        <v>416</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-81</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="9">
+        <v>352</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8938</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="9">
+        <v>91</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-68</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>3540</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" s="9">
+        <v>339</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>4167</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="9">
+        <v>86</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>4129</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-63</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>6270</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="9">
+        <v>320</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>1586</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="9">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6554</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-61</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>4979</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="9">
+        <v>294</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>6188</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6123</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="9">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-57</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>1785</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="9">
+        <v>283</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>3260</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>6568</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="9">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-46</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>3191</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="9">
+        <v>276</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>3289</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3529</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="9">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>5483</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-41</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>5328</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="9">
+        <v>266</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3489</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>4803</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>8155</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-40</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>6245</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="9">
+        <v>236</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>8043</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>4107</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>5263</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-36</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>3563</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="9">
+        <v>229</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6147</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="9">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>5289</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-36</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>8099</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K21" s="9">
+        <v>222</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>6220</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>6284</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K22" s="9">
+        <v>218</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>6435</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-30</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>3526</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="9">
+        <v>208</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>4803</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>3081</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="9">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>4174</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-21</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="9">
+        <v>201</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>6237</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>3587</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" s="9">
+        <v>201</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>4147</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>2928</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" s="9">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>3092</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>4944</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="9">
+        <v>197</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>6497</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>3289</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="9">
+        <v>8</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3526</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3217</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="9">
+        <v>195</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>3317</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>3293</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>6146</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>3227</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="9">
+        <v>195</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>5820</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>8444</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>3426</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-19</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>6125</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="9">
+        <v>187</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>3176</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3105</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>8436</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="9">
+        <v>185</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>4174</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15">
+        <v>6238</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="17">
+        <v>-14</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3354</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" s="17">
+        <v>181</v>
+      </c>
+      <c r="M31" s="15">
+        <v>5302</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -15587,1254 +18194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="22.77734375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>4947</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="9">
-        <v>651</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>3317</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-902</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9">
-        <v>1564</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6182</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-1913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="9">
-        <v>485</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>3707</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-180</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>8086</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1392</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>6188</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1458</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>6182</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="9">
-        <v>451</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>4129</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-136</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1360</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6462</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-1375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="9">
-        <v>300</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>8383</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-136</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>3707</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="9">
-        <v>706</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>5347</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-1194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5349</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9">
-        <v>300</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6435</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-125</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3078</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="9">
-        <v>617</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>6284</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9">
-        <v>247</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>5609</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-105</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>6147</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="9">
-        <v>589</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>6488</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5483</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="9">
-        <v>215</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>4174</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-93</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>8044</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="9">
-        <v>573</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>8069</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3227</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="9">
-        <v>128</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>3556</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-90</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>5820</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="9">
-        <v>481</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>8299</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="9">
-        <v>73</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>8155</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-89</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>3556</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="K10" s="9">
-        <v>414</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>6175</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>1597</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="9">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>6290</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-83</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>6245</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="9">
-        <v>353</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>6411</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>8086</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="9">
-        <v>60</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>6138</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-75</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="9">
-        <v>326</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>3162</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>8027</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="9">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>8436</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-65</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>6138</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="9">
-        <v>266</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>8358</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>4107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>4528</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-60</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>8171</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="9">
-        <v>259</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>6156</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-383</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>3563</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="9">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>6568</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-59</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>6026</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K15" s="9">
-        <v>236</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3689</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>6462</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="9">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>4991</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-57</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>5483</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="9">
-        <v>227</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>5371</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3587</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="9">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>4162</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-51</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>5457</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="9">
-        <v>214</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>6173</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>6274</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="9">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-43</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>6180</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="K18" s="9">
-        <v>214</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>3071</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>5263</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="9">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>6274</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="9">
-        <v>214</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>6532</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>3374</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="9">
-        <v>8</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>5289</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>8042</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="9">
-        <v>212</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>6244</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>3289</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>4401</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="10">
-        <v>-24</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>8091</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" s="9">
-        <v>188</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>5443</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>1565</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8">
-        <v>6238</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="10">
-        <v>-22</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>4966</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="9">
-        <v>172</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>3362</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>3141</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8">
-        <v>2726</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="10">
-        <v>-20</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>6123</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="9">
-        <v>152</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>6290</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8">
-        <v>6488</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="10">
-        <v>-18</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>3540</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K24" s="9">
-        <v>143</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>8043</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8">
-        <v>3689</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="10">
-        <v>-17</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>5009</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="9">
-        <v>142</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3374</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="10">
-        <v>-13</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>3202</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K26" s="9">
-        <v>123</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3567</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8">
-        <v>3541</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="10">
-        <v>-13</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>3217</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="9">
-        <v>123</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>5481</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8">
-        <v>4147</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="10">
-        <v>-13</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>4707</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" s="9">
-        <v>118</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>3323</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8">
-        <v>5903</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="10">
-        <v>-6</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>1586</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="K29" s="9">
-        <v>112</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>6190</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8">
-        <v>3093</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>5349</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="9">
-        <v>94</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>5490</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="I31" s="15">
-        <v>4903</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="17">
-        <v>93</v>
-      </c>
-      <c r="M31" s="15">
-        <v>4129</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-118</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -18067,7 +19427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -19316,7 +20676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
@@ -20577,7 +21937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -21872,6 +23232,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="22.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>4947</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9">
+        <v>651</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8">
+        <v>3317</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-902</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8">
+        <v>3105</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1564</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="8">
+        <v>6182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="10">
+        <v>-1913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>6147</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="9">
+        <v>485</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8">
+        <v>3707</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="10">
+        <v>-180</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <v>8086</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1392</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="8">
+        <v>6188</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="10">
+        <v>-1458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>6182</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="9">
+        <v>451</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8">
+        <v>4129</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="10">
+        <v>-136</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <v>3264</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1360</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="8">
+        <v>6462</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="10">
+        <v>-1375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9">
+        <v>300</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8">
+        <v>8383</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="10">
+        <v>-136</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
+        <v>3707</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="9">
+        <v>706</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>5347</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="10">
+        <v>-1194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5349</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="9">
+        <v>300</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8">
+        <v>6435</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="10">
+        <v>-125</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <v>3078</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="9">
+        <v>617</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="8">
+        <v>6284</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="O6" s="10">
+        <v>-839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6245</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9">
+        <v>247</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
+        <v>5609</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="10">
+        <v>-105</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <v>6147</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="9">
+        <v>589</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="8">
+        <v>6488</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="10">
+        <v>-794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5483</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="9">
+        <v>215</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8">
+        <v>4174</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-93</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8">
+        <v>8044</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="9">
+        <v>573</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="8">
+        <v>8069</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="10">
+        <v>-785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>3227</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="9">
+        <v>128</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8">
+        <v>3556</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="10">
+        <v>-90</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <v>5820</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="9">
+        <v>481</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="8">
+        <v>8299</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="10">
+        <v>-755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5347</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9">
+        <v>73</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="8">
+        <v>8155</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="10">
+        <v>-89</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <v>3556</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="9">
+        <v>414</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="8">
+        <v>6175</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O10" s="10">
+        <v>-504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>1597</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="9">
+        <v>72</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8">
+        <v>6290</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10">
+        <v>-83</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8">
+        <v>6245</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="9">
+        <v>353</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="8">
+        <v>6411</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="10">
+        <v>-431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>8086</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8">
+        <v>6138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="10">
+        <v>-75</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <v>3260</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="9">
+        <v>326</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="8">
+        <v>3162</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O12" s="10">
+        <v>-421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>8027</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="9">
+        <v>57</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8">
+        <v>8436</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-65</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <v>6138</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="9">
+        <v>266</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="8">
+        <v>8358</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="10">
+        <v>-390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>4107</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="8">
+        <v>4528</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="10">
+        <v>-60</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8">
+        <v>8171</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="9">
+        <v>259</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="8">
+        <v>6156</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="10">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>3563</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="9">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8">
+        <v>6568</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="10">
+        <v>-59</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <v>6026</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" s="9">
+        <v>236</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="8">
+        <v>3689</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="10">
+        <v>-323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>6462</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="9">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="8">
+        <v>4991</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="10">
+        <v>-57</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <v>5483</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="9">
+        <v>227</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="8">
+        <v>5371</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="10">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>3587</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="9">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8">
+        <v>4162</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-51</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8">
+        <v>5457</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="9">
+        <v>214</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="8">
+        <v>6173</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="10">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>6274</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="8">
+        <v>3611</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-43</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <v>6180</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="9">
+        <v>214</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="8">
+        <v>3071</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="10">
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>5263</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="9">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="8">
+        <v>3081</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <v>6274</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="9">
+        <v>214</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="8">
+        <v>6532</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O19" s="10">
+        <v>-248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>3374</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="8">
+        <v>5289</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="10">
+        <v>-25</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8">
+        <v>8042</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="9">
+        <v>212</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="8">
+        <v>6244</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="10">
+        <v>-244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>3289</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8">
+        <v>4401</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="10">
+        <v>-24</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <v>8091</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="9">
+        <v>188</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>5443</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="10">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1565</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8">
+        <v>6238</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="10">
+        <v>-22</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <v>4966</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="9">
+        <v>172</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8">
+        <v>3362</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="10">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>3141</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8">
+        <v>2726</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="10">
+        <v>-20</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8">
+        <v>6123</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="9">
+        <v>152</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8">
+        <v>6290</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="10">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8">
+        <v>6488</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="10">
+        <v>-18</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <v>3540</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K24" s="9">
+        <v>143</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8">
+        <v>8043</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" s="10">
+        <v>-163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8">
+        <v>3689</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="10">
+        <v>-17</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <v>5009</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="9">
+        <v>142</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8">
+        <v>3374</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8">
+        <v>2233</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
+        <v>3202</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="9">
+        <v>123</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8">
+        <v>3567</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" s="10">
+        <v>-147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8">
+        <v>3541</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <v>3217</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="9">
+        <v>123</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8">
+        <v>5481</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" s="10">
+        <v>-147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="8">
+        <v>4147</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="10">
+        <v>-13</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <v>4707</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" s="9">
+        <v>118</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="8">
+        <v>3323</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="10">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8">
+        <v>5903</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="10">
+        <v>-6</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="8">
+        <v>1586</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" s="9">
+        <v>112</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="8">
+        <v>6190</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="10">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="8">
+        <v>3093</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="10">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <v>5349</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="9">
+        <v>94</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="8">
+        <v>5490</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" s="10">
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="I31" s="15">
+        <v>4903</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="17">
+        <v>93</v>
+      </c>
+      <c r="M31" s="15">
+        <v>4129</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" s="17">
+        <v>-118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B30 J2:J30">
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F30 N2:N30">
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -23130,7 +25737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -24377,7 +26984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -25606,7 +28213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -26899,7 +29506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -28162,7 +30769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -29447,1243 +32054,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="1.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.88671875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="1.88671875" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>8027</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="9">
-        <v>434</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8">
-        <v>3264</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="10">
-        <v>-320</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8">
-        <v>8069</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="9">
-        <v>11239</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8">
-        <v>6182</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="10">
-        <v>-5853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>8183</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="9">
-        <v>400</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8">
-        <v>8436</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="10">
-        <v>-164</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
-        <v>3264</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="9">
-        <v>3210</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="8">
-        <v>4167</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="O3" s="10">
-        <v>-1709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3374</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="9">
-        <v>390</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
-        <v>8349</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="10">
-        <v>-158</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>5347</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1248</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="8">
-        <v>6147</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="10">
-        <v>-1091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>6290</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9">
-        <v>288</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
-        <v>6188</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="10">
-        <v>-135</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8">
-        <v>3707</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1196</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="8">
-        <v>3552</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O5" s="10">
-        <v>-951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3227</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="9">
-        <v>155</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
-        <v>6554</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="10">
-        <v>-107</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
-        <v>3105</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1174</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8">
-        <v>8044</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="10">
-        <v>-802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6245</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9">
-        <v>140</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
-        <v>6138</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="10">
-        <v>-67</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
-        <v>6488</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="9">
-        <v>704</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8">
-        <v>3390</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="O7" s="10">
-        <v>-599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>3105</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9">
-        <v>136</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
-        <v>3289</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10">
-        <v>-61</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8">
-        <v>3078</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="9">
-        <v>661</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8">
-        <v>3374</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="10">
-        <v>-525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>8406</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="9">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
-        <v>2726</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="10">
-        <v>-54</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
-        <v>6462</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="9">
-        <v>546</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8">
-        <v>6180</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O9" s="10">
-        <v>-505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>6274</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9">
-        <v>113</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8">
-        <v>3611</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-45</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
-        <v>6208</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="9">
-        <v>373</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8">
-        <v>6138</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="10">
-        <v>-480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>6462</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="9">
-        <v>102</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8">
-        <v>4401</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="10">
-        <v>-42</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8">
-        <v>3324</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="9">
-        <v>355</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8">
-        <v>5425</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="10">
-        <v>-478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>5425</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9">
-        <v>100</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8">
-        <v>6435</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10">
-        <v>-42</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
-        <v>3323</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="9">
-        <v>312</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8">
-        <v>5392</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="O12" s="10">
-        <v>-470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>8279</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="9">
-        <v>92</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8">
-        <v>1787</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-30</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
-        <v>5289</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="9">
-        <v>294</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8">
-        <v>8924</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="O13" s="10">
-        <v>-460</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>6173</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="9">
-        <v>91</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8">
-        <v>2233</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="10">
-        <v>-25</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8">
-        <v>8155</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="9">
-        <v>293</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8">
-        <v>3141</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="10">
-        <v>-438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>8086</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="9">
-        <v>80</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8">
-        <v>3081</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="10">
-        <v>-23</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>3526</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="9">
-        <v>276</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8">
-        <v>3081</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="10">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>8155</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="9">
-        <v>60</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8">
-        <v>5483</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="10">
-        <v>-18</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
-        <v>6609</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K16" s="9">
-        <v>251</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8">
-        <v>3227</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="O16" s="10">
-        <v>-362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>3390</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="9">
-        <v>52</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8">
-        <v>3491</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8">
-        <v>6125</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="9">
-        <v>241</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8">
-        <v>3666</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="10">
-        <v>-303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>6147</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="9">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8">
-        <v>4966</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="10">
-        <v>-9</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
-        <v>3508</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="9">
-        <v>234</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8">
-        <v>5481</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="O18" s="10">
-        <v>-288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>8069</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9">
-        <v>50</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8">
-        <v>6488</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="10">
-        <v>-3</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>5820</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="9">
-        <v>192</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8">
-        <v>6244</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" s="10">
-        <v>-273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>5347</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8">
-        <v>1264</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="10">
-        <v>-2</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8">
-        <v>3362</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="9">
-        <v>186</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8">
-        <v>5478</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="O20" s="10">
-        <v>-263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>1565</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9">
-        <v>37</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8">
-        <v>3552</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>3236</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="9">
-        <v>179</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8">
-        <v>5328</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O21" s="10">
-        <v>-242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>6238</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
-        <v>6123</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K22" s="9">
-        <v>174</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8">
-        <v>8027</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O22" s="10">
-        <v>-233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>9951</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9">
-        <v>24</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
-        <v>5483</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="9">
-        <v>173</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8">
-        <v>4806</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>3691</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="9">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
-        <v>6148</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="K24" s="9">
-        <v>162</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8">
-        <v>3428</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="O24" s="10">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>8916</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="9">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
-        <v>3260</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K25" s="9">
-        <v>160</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8">
-        <v>3594</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="O25" s="10">
-        <v>-218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>3587</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="9">
-        <v>15</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8">
-        <v>6298</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="9">
-        <v>153</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8">
-        <v>3489</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="O26" s="10">
-        <v>-190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>4105</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="9">
-        <v>15</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
-        <v>8436</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="9">
-        <v>147</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8">
-        <v>8299</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="10">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>5490</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="9">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
-        <v>6404</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K28" s="9">
-        <v>143</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8">
-        <v>3294</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O28" s="10">
-        <v>-172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>3526</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="9">
-        <v>5</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8">
-        <v>6435</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="9">
-        <v>141</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8">
-        <v>8096</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O29" s="10">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>8437</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="9">
-        <v>4</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
-        <v>5315</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K30" s="9">
-        <v>139</v>
-      </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8">
-        <v>6173</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O30" s="10">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
-        <v>4947</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="17">
-        <v>4</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="I31" s="15">
-        <v>8358</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="17">
-        <v>139</v>
-      </c>
-      <c r="M31" s="15">
-        <v>6245</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="O31" s="17">
-        <v>-123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B30 J2:J30">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F30 N2:N30">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/tpex.xlsx
+++ b/tpex.xlsx
@@ -13,169 +13,176 @@
   </bookViews>
   <sheets>
     <sheet name="櫃買中心" sheetId="10" r:id="rId1"/>
-    <sheet name="1061128" sheetId="27" r:id="rId2"/>
-    <sheet name="1061127" sheetId="26" r:id="rId3"/>
-    <sheet name="1061124" sheetId="25" r:id="rId4"/>
-    <sheet name="1061123" sheetId="24" r:id="rId5"/>
-    <sheet name="1061122" sheetId="23" r:id="rId6"/>
-    <sheet name="1061121" sheetId="22" r:id="rId7"/>
-    <sheet name="1061120" sheetId="21" r:id="rId8"/>
-    <sheet name="1061117" sheetId="20" r:id="rId9"/>
-    <sheet name="1061116" sheetId="19" r:id="rId10"/>
-    <sheet name="1061115" sheetId="18" r:id="rId11"/>
-    <sheet name="1061114" sheetId="17" r:id="rId12"/>
-    <sheet name="1061113" sheetId="16" r:id="rId13"/>
-    <sheet name="1061110" sheetId="15" r:id="rId14"/>
-    <sheet name="1061109" sheetId="14" r:id="rId15"/>
-    <sheet name="1061108" sheetId="13" r:id="rId16"/>
-    <sheet name="1060307" sheetId="12" r:id="rId17"/>
-    <sheet name="1060306" sheetId="11" r:id="rId18"/>
-    <sheet name="1060303" sheetId="9" r:id="rId19"/>
-    <sheet name="1060302" sheetId="8" r:id="rId20"/>
-    <sheet name="1060301" sheetId="6" r:id="rId21"/>
-    <sheet name="1060224" sheetId="1" r:id="rId22"/>
-    <sheet name="1060223" sheetId="5" r:id="rId23"/>
-    <sheet name="1060222" sheetId="7" r:id="rId24"/>
+    <sheet name="1061129" sheetId="28" r:id="rId2"/>
+    <sheet name="1061128" sheetId="27" r:id="rId3"/>
+    <sheet name="1061127" sheetId="26" r:id="rId4"/>
+    <sheet name="1061124" sheetId="25" r:id="rId5"/>
+    <sheet name="1061123" sheetId="24" r:id="rId6"/>
+    <sheet name="1061122" sheetId="23" r:id="rId7"/>
+    <sheet name="1061121" sheetId="22" r:id="rId8"/>
+    <sheet name="1061120" sheetId="21" r:id="rId9"/>
+    <sheet name="1061117" sheetId="20" r:id="rId10"/>
+    <sheet name="1061116" sheetId="19" r:id="rId11"/>
+    <sheet name="1061115" sheetId="18" r:id="rId12"/>
+    <sheet name="1061114" sheetId="17" r:id="rId13"/>
+    <sheet name="1061113" sheetId="16" r:id="rId14"/>
+    <sheet name="1061110" sheetId="15" r:id="rId15"/>
+    <sheet name="1061109" sheetId="14" r:id="rId16"/>
+    <sheet name="1061108" sheetId="13" r:id="rId17"/>
+    <sheet name="1060307" sheetId="12" r:id="rId18"/>
+    <sheet name="1060306" sheetId="11" r:id="rId19"/>
+    <sheet name="1060303" sheetId="9" r:id="rId20"/>
+    <sheet name="1060302" sheetId="8" r:id="rId21"/>
+    <sheet name="1060301" sheetId="6" r:id="rId22"/>
+    <sheet name="1060224" sheetId="1" r:id="rId23"/>
+    <sheet name="1060223" sheetId="5" r:id="rId24"/>
+    <sheet name="1060222" sheetId="7" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="TWT38U" localSheetId="23">'1060222'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="22">'1060223'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="21">'1060224'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="20">'1060301'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="19">'1060302'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="18">'1060303'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="17">'1060306'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="16">'1060307'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="15">'1061108'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="14">'1061109'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="13">'1061110'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="12">'1061113'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="11">'1061114'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="10">'1061115'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="9">'1061116'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="8">'1061117'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="7">'1061120'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="6">'1061121'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="5">'1061122'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="4">'1061123'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="3">'1061124'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="2">'1061127'!#REF!</definedName>
-    <definedName name="TWT38U" localSheetId="1">'1061128'!#REF!</definedName>
-    <definedName name="TWT44U" localSheetId="23">'1060222'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="22">'1060223'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="21">'1060224'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="20">'1060301'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="19">'1060302'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="18">'1060303'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="17">'1060306'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="16">'1060307'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="15">'1061108'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="14">'1061109'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="13">'1061110'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="12">'1061113'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="11">'1061114'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="10">'1061115'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="9">'1061116'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="8">'1061117'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="7">'1061120'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="6">'1061121'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="5">'1061122'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="4">'1061123'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="3">'1061124'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="2">'1061127'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U" localSheetId="1">'1061128'!$A$1:$C$30</definedName>
-    <definedName name="TWT44U_1" localSheetId="23">'1060222'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="22">'1060223'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="21">'1060224'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="20">'1060301'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="19">'1060302'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="18">'1060303'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="17">'1060306'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="16">'1060307'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="15">'1061108'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="14">'1061109'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="13">'1061110'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="12">'1061113'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="11">'1061114'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="10">'1061115'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="9">'1061116'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="8">'1061117'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="7">'1061120'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="6">'1061121'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="5">'1061122'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="4">'1061123'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="3">'1061124'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="2">'1061127'!#REF!</definedName>
-    <definedName name="TWT44U_1" localSheetId="1">'1061128'!#REF!</definedName>
-    <definedName name="TWT44U_2" localSheetId="23">'1060222'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="22">'1060223'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="21">'1060224'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="20">'1060301'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="19">'1060302'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="18">'1060303'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="17">'1060306'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="16">'1060307'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="15">'1061108'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="14">'1061109'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="13">'1061110'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="12">'1061113'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="11">'1061114'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="10">'1061115'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="9">'1061116'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="8">'1061117'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="7">'1061120'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="6">'1061121'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="5">'1061122'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="4">'1061123'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="3">'1061124'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="2">'1061127'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_2" localSheetId="1">'1061128'!$E$1:$E$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="23">'1060222'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="22">'1060223'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="21">'1060224'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="20">'1060301'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="19">'1060302'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="18">'1060303'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="17">'1060306'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="16">'1060307'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="15">'1061108'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="14">'1061109'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="13">'1061110'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="12">'1061113'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="11">'1061114'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="10">'1061115'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="9">'1061116'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="8">'1061117'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="7">'1061120'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="6">'1061121'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="5">'1061122'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="4">'1061123'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="3">'1061124'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="2">'1061127'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_3" localSheetId="1">'1061128'!$M$1:$M$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="23">'1060222'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="22">'1060223'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="21">'1060224'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="20">'1060301'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="19">'1060302'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="18">'1060303'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="17">'1060306'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="16">'1060307'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="15">'1061108'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="14">'1061109'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="13">'1061110'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="12">'1061113'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="11">'1061114'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="10">'1061115'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="9">'1061116'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="8">'1061117'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="7">'1061120'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="6">'1061121'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="5">'1061122'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="4">'1061123'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="3">'1061124'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="2">'1061127'!$I$1:$K$30</definedName>
-    <definedName name="TWT44U_4" localSheetId="1">'1061128'!$I$1:$K$30</definedName>
+    <definedName name="TWT38U" localSheetId="24">'1060222'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="23">'1060223'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="22">'1060224'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="21">'1060301'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="20">'1060302'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="19">'1060303'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="18">'1060306'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="17">'1060307'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="16">'1061108'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="15">'1061109'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="14">'1061110'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="13">'1061113'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="12">'1061114'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="11">'1061115'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="10">'1061116'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="9">'1061117'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="8">'1061120'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="7">'1061121'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="6">'1061122'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="5">'1061123'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="4">'1061124'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="3">'1061127'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="2">'1061128'!#REF!</definedName>
+    <definedName name="TWT38U" localSheetId="1">'1061129'!#REF!</definedName>
+    <definedName name="TWT44U" localSheetId="24">'1060222'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="23">'1060223'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="22">'1060224'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="21">'1060301'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="20">'1060302'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="19">'1060303'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="18">'1060306'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="17">'1060307'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="16">'1061108'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="15">'1061109'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="14">'1061110'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="13">'1061113'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="12">'1061114'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="11">'1061115'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="10">'1061116'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="9">'1061117'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="8">'1061120'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="7">'1061121'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="6">'1061122'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="5">'1061123'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="4">'1061124'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="3">'1061127'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="2">'1061128'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U" localSheetId="1">'1061129'!$A$1:$C$30</definedName>
+    <definedName name="TWT44U_1" localSheetId="24">'1060222'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="23">'1060223'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="22">'1060224'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="21">'1060301'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="20">'1060302'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="19">'1060303'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="18">'1060306'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="17">'1060307'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="16">'1061108'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="15">'1061109'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="14">'1061110'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="13">'1061113'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="12">'1061114'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="11">'1061115'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="10">'1061116'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="9">'1061117'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="8">'1061120'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="7">'1061121'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="6">'1061122'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="5">'1061123'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="4">'1061124'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="3">'1061127'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="2">'1061128'!#REF!</definedName>
+    <definedName name="TWT44U_1" localSheetId="1">'1061129'!#REF!</definedName>
+    <definedName name="TWT44U_2" localSheetId="24">'1060222'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="23">'1060223'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="22">'1060224'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="21">'1060301'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="20">'1060302'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="19">'1060303'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="18">'1060306'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="17">'1060307'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="16">'1061108'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="15">'1061109'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="14">'1061110'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="13">'1061113'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="12">'1061114'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="11">'1061115'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="10">'1061116'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="9">'1061117'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="8">'1061120'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="7">'1061121'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="6">'1061122'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="5">'1061123'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="4">'1061124'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="3">'1061127'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="2">'1061128'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_2" localSheetId="1">'1061129'!$E$1:$E$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="24">'1060222'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="23">'1060223'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="22">'1060224'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="21">'1060301'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="20">'1060302'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="19">'1060303'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="18">'1060306'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="17">'1060307'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="16">'1061108'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="15">'1061109'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="14">'1061110'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="13">'1061113'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="12">'1061114'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="11">'1061115'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="10">'1061116'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="9">'1061117'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="8">'1061120'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="7">'1061121'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="6">'1061122'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="5">'1061123'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="4">'1061124'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="3">'1061127'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="2">'1061128'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_3" localSheetId="1">'1061129'!$M$1:$M$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="24">'1060222'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="23">'1060223'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="22">'1060224'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="21">'1060301'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="20">'1060302'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="19">'1060303'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="18">'1060306'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="17">'1060307'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="16">'1061108'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="15">'1061109'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="14">'1061110'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="13">'1061113'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="12">'1061114'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="11">'1061115'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="10">'1061116'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="9">'1061117'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="8">'1061120'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="7">'1061121'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="6">'1061122'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="5">'1061123'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="4">'1061124'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="3">'1061127'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="2">'1061128'!$I$1:$K$30</definedName>
+    <definedName name="TWT44U_4" localSheetId="1">'1061129'!$I$1:$K$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -251,224 +258,236 @@
   <connection id="21" name="連線11111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="22" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="22" name="連線111111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="23" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="連線2" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="24" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="連線21" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="25" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="連線211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="26" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="26" name="連線2111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="27" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="27" name="連線212" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="28" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="連線2121" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="29" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="29" name="連線21211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="30" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="30" name="連線212111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="31" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="31" name="連線2121111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="32" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="32" name="連線21211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="33" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="33" name="連線212111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="34" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="34" name="連線2121111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="35" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="35" name="連線21211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="36" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="36" name="連線212111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="37" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="37" name="連線2121111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="38" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="38" name="連線21211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="39" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="39" name="連線212111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="40" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="40" name="連線2121111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="41" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="41" name="連線21211111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="42" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="42" name="連線212111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="43" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="43" name="連線2121111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="44" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="44" name="連線21211111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="45" name="連線2121111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="45" name="連線212111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="46" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="46" name="連線2121111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="47" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="47" name="連線21211111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="48" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="48" name="連線22" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="49" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="49" name="連線221" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="50" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="50" name="連線23" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="51" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="51" name="連線231" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="52" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="52" name="連線2311" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="53" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="53" name="連線23111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="54" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="54" name="連線231111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="55" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="55" name="連線2311111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="56" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="56" name="連線23111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="57" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="57" name="連線231111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="58" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="58" name="連線2311111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="59" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="59" name="連線23111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="60" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="60" name="連線231111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="61" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="61" name="連線2311111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="62" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="62" name="連線23111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="63" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="63" name="連線231111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="64" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="64" name="連線2311111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="65" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="65" name="連線23111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="66" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="66" name="連線231111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="67" name="連線231111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="67" name="連線2311111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="68" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="68" name="連線23111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="69" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="69" name="連線231111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="70" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="70" name="連線2311111111111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="71" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="71" name="連線4" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="72" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="72" name="連線41" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="73" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="73" name="連線411" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="74" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="74" name="連線42" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="75" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="75" name="連線421" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="76" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="76" name="連線4211" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="77" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="77" name="連線42111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="78" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="78" name="連線421111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="79" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="79" name="連線4211111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="80" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="80" name="連線42111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="81" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="81" name="連線421111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="82" name="連線4211111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="82" name="連線4211111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="83" name="連線42111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="83" name="連線42111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="84" name="連線421111111111111" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="84" name="連線421111111111" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="http://www.tse.com.tw/ch/trading/fund/TWT44U/TWT44U.php"/>
   </connection>
-  <connection id="85" name="連線4211111111111111" type="4" refreshedVer